--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_0_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1953287.747904688</v>
+        <v>-1954832.749825045</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160400.5769649643</v>
+        <v>49773.79922236718</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>60.4617907661316</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>129.1639907736713</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.5968436493441</v>
+        <v>27.37301815328992</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>80.02240554101627</v>
+        <v>57.88979017035233</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1029,7 +1029,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365811</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>61.26526235734959</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>104.417709166153</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>44.58467420294791</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.2137407186092</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>412.6972596523406</v>
       </c>
       <c r="H11" t="n">
-        <v>118.0557159988224</v>
+        <v>312.7914519534229</v>
       </c>
       <c r="I11" t="n">
-        <v>110.0282042650208</v>
+        <v>110.0282042650209</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.6903702197484</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>16.95463426514625</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1464,10 @@
         <v>135.9494636067164</v>
       </c>
       <c r="H12" t="n">
-        <v>98.77182173035465</v>
+        <v>98.77182173035466</v>
       </c>
       <c r="I12" t="n">
-        <v>41.39961347211753</v>
+        <v>41.39961347211754</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.6042282503073</v>
+        <v>13.60422825030733</v>
       </c>
       <c r="S12" t="n">
         <v>145.7892377189557</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>57.38536369082162</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.822251685988</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>151.8361210194725</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.73013367299214</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>124.7431453040765</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.9519348277247</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2552805743561</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>192.7504999468539</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>337.1014382641436</v>
       </c>
       <c r="D14" t="n">
-        <v>146.8799540359631</v>
+        <v>326.511588113819</v>
       </c>
       <c r="E14" t="n">
         <v>353.7589165653978</v>
@@ -1622,10 +1622,10 @@
         <v>384.5258061454766</v>
       </c>
       <c r="H14" t="n">
-        <v>284.619998446559</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>81.85675075815692</v>
+        <v>81.85675075815695</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>299.580804963271</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>104.9883643687012</v>
       </c>
       <c r="X14" t="n">
         <v>341.5596471716051</v>
@@ -1701,10 +1701,10 @@
         <v>135.9494636067164</v>
       </c>
       <c r="H15" t="n">
-        <v>98.77182173035465</v>
+        <v>98.77182173035466</v>
       </c>
       <c r="I15" t="n">
-        <v>41.39961347211753</v>
+        <v>41.39961347211754</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.6042282503073</v>
+        <v>13.60422825030733</v>
       </c>
       <c r="S15" t="n">
         <v>145.7892377189557</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.6605266750734</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.0753675917639</v>
+        <v>79.21976858893956</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>118.2625091397052</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>30.343577816812</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>138.6507981791241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>96.57169179721255</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>175.4774086380502</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7804813208608</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>258.0838270674922</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>223.9661898169641</v>
       </c>
       <c r="W16" t="n">
         <v>258.3515448297271</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>197.5382018821732</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>321.1823115373897</v>
+        <v>321.1823115373895</v>
       </c>
       <c r="C17" t="n">
-        <v>303.7213616449167</v>
+        <v>303.7213616449165</v>
       </c>
       <c r="D17" t="n">
-        <v>293.1315114945921</v>
+        <v>293.1315114945919</v>
       </c>
       <c r="E17" t="n">
-        <v>320.3788399461709</v>
+        <v>320.3788399461707</v>
       </c>
       <c r="F17" t="n">
-        <v>345.3245156156206</v>
+        <v>345.3245156156204</v>
       </c>
       <c r="G17" t="n">
-        <v>351.1457295262497</v>
+        <v>351.1457295262495</v>
       </c>
       <c r="H17" t="n">
-        <v>251.2399218273321</v>
+        <v>251.2399218273319</v>
       </c>
       <c r="I17" t="n">
-        <v>48.47667413892995</v>
+        <v>48.47667413892982</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.09621266172475</v>
+        <v>88.09621266172454</v>
       </c>
       <c r="T17" t="n">
-        <v>150.1388400936575</v>
+        <v>150.1388400936574</v>
       </c>
       <c r="U17" t="n">
-        <v>189.5856845527221</v>
+        <v>189.5856845527219</v>
       </c>
       <c r="V17" t="n">
-        <v>266.200728344044</v>
+        <v>266.2007283440439</v>
       </c>
       <c r="W17" t="n">
-        <v>287.6894385913221</v>
+        <v>287.689438591322</v>
       </c>
       <c r="X17" t="n">
-        <v>308.1795705523782</v>
+        <v>308.179570552378</v>
       </c>
       <c r="Y17" t="n">
-        <v>324.6864085299627</v>
+        <v>324.6864085299625</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.9494636067164</v>
       </c>
       <c r="H18" t="n">
-        <v>98.77182173035465</v>
+        <v>98.77182173035466</v>
       </c>
       <c r="I18" t="n">
-        <v>41.39961347211752</v>
+        <v>41.39961347211754</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.60422825030729</v>
+        <v>13.60422825030733</v>
       </c>
       <c r="S18" t="n">
         <v>145.7892377189557</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.2804500558464</v>
+        <v>118.2804500558462</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>87.06394289212149</v>
+        <v>19.63032255637631</v>
       </c>
       <c r="E19" t="n">
-        <v>84.8824325204783</v>
+        <v>84.88243252047809</v>
       </c>
       <c r="F19" t="n">
-        <v>83.86951789684038</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>105.2707215598972</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>58.7521162508658</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.9960943794611</v>
+        <v>63.19161517798542</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.0973320188231</v>
       </c>
       <c r="T19" t="n">
-        <v>161.4004047016339</v>
+        <v>161.4004047016336</v>
       </c>
       <c r="U19" t="n">
-        <v>224.7037504482652</v>
+        <v>224.703750448265</v>
       </c>
       <c r="V19" t="n">
-        <v>190.5861131977371</v>
+        <v>190.5861131977369</v>
       </c>
       <c r="W19" t="n">
-        <v>224.9714682105001</v>
+        <v>224.9714682104999</v>
       </c>
       <c r="X19" t="n">
-        <v>164.1581252629463</v>
+        <v>164.1581252629461</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>157.0331232260037</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>321.1823115373897</v>
+        <v>321.1823115373895</v>
       </c>
       <c r="C20" t="n">
-        <v>303.7213616449167</v>
+        <v>303.7213616449165</v>
       </c>
       <c r="D20" t="n">
-        <v>293.1315114945921</v>
+        <v>293.1315114945919</v>
       </c>
       <c r="E20" t="n">
-        <v>320.3788399461709</v>
+        <v>320.3788399461707</v>
       </c>
       <c r="F20" t="n">
-        <v>345.3245156156206</v>
+        <v>345.3245156156204</v>
       </c>
       <c r="G20" t="n">
-        <v>351.1457295262497</v>
+        <v>351.1457295262495</v>
       </c>
       <c r="H20" t="n">
-        <v>251.2399218273321</v>
+        <v>251.2399218273319</v>
       </c>
       <c r="I20" t="n">
-        <v>48.47667413892994</v>
+        <v>48.47667413892979</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.09621266172471</v>
+        <v>88.09621266172456</v>
       </c>
       <c r="T20" t="n">
-        <v>150.1388400936568</v>
+        <v>150.1388400936574</v>
       </c>
       <c r="U20" t="n">
-        <v>189.5856845527221</v>
+        <v>189.5856845527233</v>
       </c>
       <c r="V20" t="n">
-        <v>266.200728344044</v>
+        <v>266.2007283440439</v>
       </c>
       <c r="W20" t="n">
-        <v>287.6894385913221</v>
+        <v>287.689438591322</v>
       </c>
       <c r="X20" t="n">
-        <v>308.1795705523782</v>
+        <v>308.179570552378</v>
       </c>
       <c r="Y20" t="n">
-        <v>324.6864085299627</v>
+        <v>324.6864085299625</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>98.77182173035465</v>
       </c>
       <c r="I21" t="n">
-        <v>41.39961347211752</v>
+        <v>41.39961347211753</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.60422825030727</v>
+        <v>13.6042282503073</v>
       </c>
       <c r="S21" t="n">
         <v>145.7892377189557</v>
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>105.695290972537</v>
+        <v>105.6952909725368</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.0639428921213</v>
       </c>
       <c r="E22" t="n">
-        <v>84.88243252047829</v>
+        <v>84.88243252047812</v>
       </c>
       <c r="F22" t="n">
-        <v>83.86951789684036</v>
+        <v>83.86951789684019</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>105.270721559897</v>
       </c>
       <c r="H22" t="n">
-        <v>90.28459089338165</v>
+        <v>90.28459089338148</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>63.19161517798543</v>
       </c>
       <c r="S22" t="n">
-        <v>142.0973320188233</v>
+        <v>32.52779086453431</v>
       </c>
       <c r="T22" t="n">
-        <v>161.4004047016338</v>
+        <v>161.4004047016337</v>
       </c>
       <c r="U22" t="n">
-        <v>224.7037504482652</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>190.5861131977371</v>
+        <v>190.5861131977369</v>
       </c>
       <c r="W22" t="n">
-        <v>224.9714682105001</v>
+        <v>224.9714682104999</v>
       </c>
       <c r="X22" t="n">
-        <v>164.1581252629463</v>
+        <v>164.1581252629461</v>
       </c>
       <c r="Y22" t="n">
-        <v>78.28611125345027</v>
+        <v>157.0331232260037</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>321.1823115373896</v>
+        <v>321.1823115373895</v>
       </c>
       <c r="C23" t="n">
-        <v>303.7213616449166</v>
+        <v>303.7213616449165</v>
       </c>
       <c r="D23" t="n">
-        <v>293.131511494592</v>
+        <v>293.1315114945934</v>
       </c>
       <c r="E23" t="n">
-        <v>320.3788399461708</v>
+        <v>320.3788399461707</v>
       </c>
       <c r="F23" t="n">
-        <v>345.3245156156205</v>
+        <v>345.3245156156204</v>
       </c>
       <c r="G23" t="n">
-        <v>351.1457295262496</v>
+        <v>351.1457295262495</v>
       </c>
       <c r="H23" t="n">
-        <v>251.239921827332</v>
+        <v>251.2399218273319</v>
       </c>
       <c r="I23" t="n">
-        <v>48.47667413892991</v>
+        <v>48.47667413892979</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.09621266172469</v>
+        <v>88.09621266172456</v>
       </c>
       <c r="T23" t="n">
-        <v>150.1388400936575</v>
+        <v>150.1388400936574</v>
       </c>
       <c r="U23" t="n">
-        <v>189.585684552722</v>
+        <v>189.5856845527219</v>
       </c>
       <c r="V23" t="n">
-        <v>266.200728344044</v>
+        <v>266.2007283440439</v>
       </c>
       <c r="W23" t="n">
-        <v>287.6894385913221</v>
+        <v>287.689438591322</v>
       </c>
       <c r="X23" t="n">
-        <v>308.1795705523781</v>
+        <v>308.179570552378</v>
       </c>
       <c r="Y23" t="n">
-        <v>324.6864085299626</v>
+        <v>324.6864085299625</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>98.77182173035465</v>
       </c>
       <c r="I24" t="n">
-        <v>41.39961347211752</v>
+        <v>41.39961347211753</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.60422825030729</v>
+        <v>13.6042282503073</v>
       </c>
       <c r="S24" t="n">
         <v>145.7892377189557</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.2804500558464</v>
+        <v>118.2804500558462</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>87.06394289212143</v>
+        <v>87.0639428921213</v>
       </c>
       <c r="E25" t="n">
-        <v>84.88243252047825</v>
+        <v>7.452828657457487</v>
       </c>
       <c r="F25" t="n">
-        <v>83.86951789684032</v>
+        <v>83.86951789684019</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>90.28459089338148</v>
       </c>
       <c r="I25" t="n">
-        <v>58.75211625086574</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.19161517798554</v>
+        <v>63.19161517798543</v>
       </c>
       <c r="S25" t="n">
-        <v>142.0973320188232</v>
+        <v>142.0973320188231</v>
       </c>
       <c r="T25" t="n">
-        <v>161.4004047016338</v>
+        <v>161.4004047016337</v>
       </c>
       <c r="U25" t="n">
-        <v>224.7037504482652</v>
+        <v>224.7037504482651</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>190.5861131977369</v>
       </c>
       <c r="W25" t="n">
-        <v>224.9714682105001</v>
+        <v>224.9714682104999</v>
       </c>
       <c r="X25" t="n">
-        <v>164.1581252629462</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.5639819402876</v>
+        <v>157.0331232260037</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>299.7356378557485</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>282.2746879632755</v>
@@ -2570,10 +2570,10 @@
         <v>329.6990558446085</v>
       </c>
       <c r="H26" t="n">
-        <v>229.7932481456909</v>
+        <v>312.7914519534229</v>
       </c>
       <c r="I26" t="n">
-        <v>110.0282042650208</v>
+        <v>27.03000045728879</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>149.6477427878156</v>
+        <v>66.64953898008355</v>
       </c>
       <c r="T26" t="n">
-        <v>128.6921664120163</v>
+        <v>201.3976602134365</v>
       </c>
       <c r="U26" t="n">
-        <v>240.8445046725002</v>
+        <v>251.1372146788129</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>244.7540546624028</v>
       </c>
       <c r="W26" t="n">
         <v>266.2427649096809</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.2804500558463</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>105.6952909725369</v>
@@ -2956,13 +2956,13 @@
         <v>87.06394289212137</v>
       </c>
       <c r="E31" t="n">
-        <v>84.88243252047819</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.86951789684026</v>
+        <v>8.108465476101784</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>105.270721559897</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>63.1916151779855</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0973320188232</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>161.4004047016338</v>
       </c>
       <c r="U31" t="n">
         <v>224.7037504482651</v>
@@ -3013,7 +3013,7 @@
         <v>224.9714682105</v>
       </c>
       <c r="X31" t="n">
-        <v>9.807984508590488</v>
+        <v>164.1581252629462</v>
       </c>
       <c r="Y31" t="n">
         <v>157.0331232260038</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>299.7356378557485</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>282.2746879632755</v>
@@ -3035,19 +3035,19 @@
         <v>271.6848378129509</v>
       </c>
       <c r="E32" t="n">
-        <v>298.9321662645297</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>396.5833357353987</v>
+        <v>396.5833357353986</v>
       </c>
       <c r="G32" t="n">
-        <v>329.6990558446085</v>
+        <v>329.6990558446086</v>
       </c>
       <c r="H32" t="n">
-        <v>229.7932481456909</v>
+        <v>229.793248145691</v>
       </c>
       <c r="I32" t="n">
-        <v>110.0282042650208</v>
+        <v>27.03000045728882</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.64953898008355</v>
+        <v>149.6477427878156</v>
       </c>
       <c r="T32" t="n">
-        <v>128.6921664120163</v>
+        <v>128.6921664120164</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1372146788129</v>
+        <v>168.1390108710809</v>
       </c>
       <c r="V32" t="n">
-        <v>244.7540546624028</v>
+        <v>244.7540546624029</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>266.242764909681</v>
       </c>
       <c r="X32" t="n">
         <v>286.732896870737</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.2397348483215</v>
+        <v>303.2397348483216</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.83377637420524</v>
+        <v>96.83377637420527</v>
       </c>
       <c r="C34" t="n">
-        <v>84.24861729089578</v>
+        <v>84.24861729089581</v>
       </c>
       <c r="D34" t="n">
-        <v>65.6172692104803</v>
+        <v>65.61726921048033</v>
       </c>
       <c r="E34" t="n">
-        <v>63.43575883883712</v>
+        <v>63.43575883883715</v>
       </c>
       <c r="F34" t="n">
-        <v>62.42284421519919</v>
+        <v>62.42284421519922</v>
       </c>
       <c r="G34" t="n">
-        <v>83.82404787825597</v>
+        <v>83.824047878256</v>
       </c>
       <c r="H34" t="n">
-        <v>68.83791721174047</v>
+        <v>68.8379172117405</v>
       </c>
       <c r="I34" t="n">
-        <v>37.30544256922461</v>
+        <v>37.30544256922464</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.74494149634442</v>
+        <v>41.74494149634445</v>
       </c>
       <c r="S34" t="n">
-        <v>120.6506583371821</v>
+        <v>120.6506583371822</v>
       </c>
       <c r="T34" t="n">
         <v>139.9537310199927</v>
       </c>
       <c r="U34" t="n">
-        <v>203.257076766624</v>
+        <v>203.2570767666241</v>
       </c>
       <c r="V34" t="n">
-        <v>169.1394395160959</v>
+        <v>169.139439516096</v>
       </c>
       <c r="W34" t="n">
-        <v>203.5247945288589</v>
+        <v>203.524794528859</v>
       </c>
       <c r="X34" t="n">
         <v>142.7114515813051</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.5864495443627</v>
+        <v>135.5864495443628</v>
       </c>
     </row>
     <row r="35">
@@ -3269,22 +3269,22 @@
         <v>282.2746879632755</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>271.6848378129509</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>298.9321662645298</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>323.8778419339794</v>
       </c>
       <c r="G35" t="n">
         <v>329.6990558446086</v>
       </c>
       <c r="H35" t="n">
-        <v>229.793248145691</v>
+        <v>312.7914519534229</v>
       </c>
       <c r="I35" t="n">
-        <v>27.03000045728884</v>
+        <v>99.73549425870839</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.64953898008361</v>
+        <v>66.64953898008358</v>
       </c>
       <c r="T35" t="n">
         <v>128.6921664120164</v>
@@ -3326,13 +3326,13 @@
         <v>244.7540546624029</v>
       </c>
       <c r="W35" t="n">
-        <v>266.242764909681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>286.732896870737</v>
       </c>
       <c r="Y35" t="n">
-        <v>375.9452286497411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.83377637420529</v>
+        <v>96.83377637420526</v>
       </c>
       <c r="C37" t="n">
-        <v>84.24861729089582</v>
+        <v>84.24861729089579</v>
       </c>
       <c r="D37" t="n">
-        <v>65.61726921048034</v>
+        <v>65.61726921048032</v>
       </c>
       <c r="E37" t="n">
-        <v>63.43575883883716</v>
+        <v>63.43575883883713</v>
       </c>
       <c r="F37" t="n">
-        <v>62.42284421519923</v>
+        <v>62.42284421519921</v>
       </c>
       <c r="G37" t="n">
-        <v>83.82404787825601</v>
+        <v>83.82404787825598</v>
       </c>
       <c r="H37" t="n">
-        <v>68.83791721174052</v>
+        <v>68.83791721174049</v>
       </c>
       <c r="I37" t="n">
-        <v>37.30544256922465</v>
+        <v>37.30544256922462</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.74494149634447</v>
+        <v>41.74494149634444</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6506583371822</v>
+        <v>120.6506583371821</v>
       </c>
       <c r="T37" t="n">
         <v>139.9537310199927</v>
@@ -3506,7 +3506,7 @@
         <v>282.2746879632755</v>
       </c>
       <c r="D38" t="n">
-        <v>271.6848378129509</v>
+        <v>344.3903316143704</v>
       </c>
       <c r="E38" t="n">
         <v>298.9321662645298</v>
@@ -3515,13 +3515,13 @@
         <v>323.8778419339794</v>
       </c>
       <c r="G38" t="n">
-        <v>329.6990558446086</v>
+        <v>412.6972596523406</v>
       </c>
       <c r="H38" t="n">
         <v>229.793248145691</v>
       </c>
       <c r="I38" t="n">
-        <v>27.03000045728884</v>
+        <v>110.0282042650208</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>168.1390108710809</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>244.7540546624029</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>286.732896870737</v>
       </c>
       <c r="Y38" t="n">
-        <v>375.9452286497406</v>
+        <v>303.2397348483216</v>
       </c>
     </row>
     <row r="39">
@@ -3749,7 +3749,7 @@
         <v>298.9321662645298</v>
       </c>
       <c r="F41" t="n">
-        <v>323.8778419339794</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>329.6990558446086</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.64953898008358</v>
+        <v>149.6477427878156</v>
       </c>
       <c r="T41" t="n">
         <v>128.6921664120164</v>
@@ -3797,16 +3797,16 @@
         <v>168.1390108710809</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>244.7540546624029</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>338.9482587111007</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>375.9452286497406</v>
+        <v>303.2397348483215</v>
       </c>
     </row>
     <row r="42">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>299.7356378557486</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>282.2746879632755</v>
       </c>
       <c r="D44" t="n">
-        <v>271.6848378129509</v>
+        <v>344.3903316143704</v>
       </c>
       <c r="E44" t="n">
         <v>298.9321662645298</v>
       </c>
       <c r="F44" t="n">
-        <v>323.8778419339794</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>329.6990558446086</v>
       </c>
       <c r="H44" t="n">
-        <v>229.793248145691</v>
+        <v>312.7914519534229</v>
       </c>
       <c r="I44" t="n">
-        <v>27.03000045728885</v>
+        <v>27.03000045728884</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>168.1390108710809</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>244.7540546624029</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>266.242764909681</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>286.732896870737</v>
       </c>
       <c r="Y44" t="n">
-        <v>375.9452286497411</v>
+        <v>303.2397348483216</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.8337763742053</v>
+        <v>96.83377637420529</v>
       </c>
       <c r="C46" t="n">
-        <v>84.24861729089584</v>
+        <v>84.24861729089582</v>
       </c>
       <c r="D46" t="n">
-        <v>65.61726921048036</v>
+        <v>65.61726921048034</v>
       </c>
       <c r="E46" t="n">
-        <v>63.43575883883717</v>
+        <v>63.43575883883716</v>
       </c>
       <c r="F46" t="n">
-        <v>62.42284421519925</v>
+        <v>62.42284421519923</v>
       </c>
       <c r="G46" t="n">
-        <v>83.82404787825602</v>
+        <v>83.82404787825601</v>
       </c>
       <c r="H46" t="n">
-        <v>68.83791721174053</v>
+        <v>68.83791721174052</v>
       </c>
       <c r="I46" t="n">
-        <v>37.30544256922467</v>
+        <v>37.30544256922465</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74494149634448</v>
+        <v>41.74494149634447</v>
       </c>
       <c r="S46" t="n">
         <v>120.6506583371822</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035247</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C2" t="n">
-        <v>494.150101163113</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>135.8844025563625</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,22 +4428,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>81.59249510651588</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>81.59249510651588</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>81.59249510651588</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1659.880644283887</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C5" t="n">
-        <v>1290.918127343476</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520779</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520779</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520779</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>2050.019976259699</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.880644283887</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714565</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.26498762696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.26498762696</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.26498762696</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2304.202100283389</v>
+        <v>2119.280205127212</v>
       </c>
       <c r="W8" t="n">
-        <v>1951.433445013275</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="X8" t="n">
-        <v>1577.967686752195</v>
+        <v>1766.511549857098</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.828354776384</v>
+        <v>1376.372217881286</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2250.60421925433</v>
+        <v>2447.306982844836</v>
       </c>
       <c r="C11" t="n">
-        <v>1881.641702313918</v>
+        <v>2078.344465904424</v>
       </c>
       <c r="D11" t="n">
-        <v>1523.376003707168</v>
+        <v>1720.078767297673</v>
       </c>
       <c r="E11" t="n">
-        <v>1137.587751108924</v>
+        <v>1334.290514699429</v>
       </c>
       <c r="F11" t="n">
-        <v>726.6018463193161</v>
+        <v>923.3046099098217</v>
       </c>
       <c r="G11" t="n">
-        <v>309.735927478568</v>
+        <v>506.4386910690736</v>
       </c>
       <c r="H11" t="n">
         <v>190.4877294999595</v>
       </c>
       <c r="I11" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J11" t="n">
         <v>286.4436427609767</v>
       </c>
       <c r="K11" t="n">
-        <v>717.5709378144511</v>
+        <v>717.5709378144506</v>
       </c>
       <c r="L11" t="n">
-        <v>1304.699097753724</v>
+        <v>1304.699097753723</v>
       </c>
       <c r="M11" t="n">
-        <v>1974.598848644289</v>
+        <v>1974.598848644288</v>
       </c>
       <c r="N11" t="n">
         <v>2640.706280317077</v>
       </c>
       <c r="O11" t="n">
-        <v>3224.505001632093</v>
+        <v>3224.505001632092</v>
       </c>
       <c r="P11" t="n">
-        <v>3685.08932070615</v>
+        <v>3685.089320706149</v>
       </c>
       <c r="Q11" t="n">
-        <v>3953.747203064042</v>
+        <v>3953.747203064041</v>
       </c>
       <c r="R11" t="n">
-        <v>3967.406461613082</v>
+        <v>3967.40646161308</v>
       </c>
       <c r="S11" t="n">
-        <v>3967.406461613082</v>
+        <v>3967.40646161308</v>
       </c>
       <c r="T11" t="n">
-        <v>3753.577804825457</v>
+        <v>3967.40646161308</v>
       </c>
       <c r="U11" t="n">
-        <v>3753.577804825457</v>
+        <v>3967.40646161308</v>
       </c>
       <c r="V11" t="n">
-        <v>3753.577804825457</v>
+        <v>3950.280568415963</v>
       </c>
       <c r="W11" t="n">
-        <v>3400.809149555343</v>
+        <v>3597.511913145849</v>
       </c>
       <c r="X11" t="n">
-        <v>3027.343391294263</v>
+        <v>3224.046154884769</v>
       </c>
       <c r="Y11" t="n">
-        <v>2637.204059318452</v>
+        <v>2833.906822908958</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>664.0301410079924</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7926860025368</v>
+        <v>504.7926860025369</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2581280294218</v>
+        <v>358.2581280294219</v>
       </c>
       <c r="G12" t="n">
         <v>220.9354375175871</v>
@@ -5115,28 +5115,28 @@
         <v>121.1659206182389</v>
       </c>
       <c r="I12" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J12" t="n">
-        <v>79.34812923226164</v>
+        <v>208.9994186606617</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5636765337579</v>
+        <v>334.3569787184991</v>
       </c>
       <c r="L12" t="n">
-        <v>957.1868486350246</v>
+        <v>564.3200845868482</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.522168164726</v>
+        <v>1032.892108609833</v>
       </c>
       <c r="N12" t="n">
-        <v>1622.042823802344</v>
+        <v>1377.412764247451</v>
       </c>
       <c r="O12" t="n">
-        <v>2162.506689007237</v>
+        <v>1954.530174148746</v>
       </c>
       <c r="P12" t="n">
-        <v>2608.691222345237</v>
+        <v>2400.714707486746</v>
       </c>
       <c r="Q12" t="n">
         <v>2646.279482496244</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>470.0288060699124</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="C13" t="n">
-        <v>470.0288060699124</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="D13" t="n">
-        <v>470.0288060699124</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="E13" t="n">
-        <v>412.0637922407997</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="F13" t="n">
-        <v>412.0637922407997</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="G13" t="n">
-        <v>243.5564673054583</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="H13" t="n">
-        <v>90.18664809386986</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="I13" t="n">
-        <v>90.18664809386986</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J13" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="K13" t="n">
-        <v>191.728389212221</v>
+        <v>191.7283892122209</v>
       </c>
       <c r="L13" t="n">
-        <v>391.0628654202109</v>
+        <v>391.0628654202108</v>
       </c>
       <c r="M13" t="n">
         <v>611.6222449201482</v>
       </c>
       <c r="N13" t="n">
-        <v>832.371831771883</v>
+        <v>832.3718317718829</v>
       </c>
       <c r="O13" t="n">
         <v>1020.253509070957</v>
@@ -5221,28 +5221,28 @@
         <v>1169.08399183513</v>
       </c>
       <c r="R13" t="n">
-        <v>1169.08399183513</v>
+        <v>1043.080814760305</v>
       </c>
       <c r="S13" t="n">
-        <v>1169.08399183513</v>
+        <v>1043.080814760305</v>
       </c>
       <c r="T13" t="n">
-        <v>1169.08399183513</v>
+        <v>817.8768401868455</v>
       </c>
       <c r="U13" t="n">
-        <v>1169.08399183513</v>
+        <v>528.7300921319403</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.08399183513</v>
+        <v>274.0456039260534</v>
       </c>
       <c r="W13" t="n">
-        <v>879.6668217981695</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="X13" t="n">
-        <v>651.6772709001522</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="Y13" t="n">
-        <v>651.6772709001522</v>
+        <v>79.34812923226161</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2066.66879231362</v>
+        <v>1960.61993941594</v>
       </c>
       <c r="C14" t="n">
-        <v>1726.162289016505</v>
+        <v>1620.113436118825</v>
       </c>
       <c r="D14" t="n">
-        <v>1577.798699081189</v>
+        <v>1290.303751155372</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.466460126242</v>
+        <v>932.9715122004243</v>
       </c>
       <c r="F14" t="n">
-        <v>837.9365689799309</v>
+        <v>550.4416210541136</v>
       </c>
       <c r="G14" t="n">
-        <v>449.5266637824798</v>
+        <v>162.0317158566626</v>
       </c>
       <c r="H14" t="n">
         <v>162.0317158566626</v>
       </c>
       <c r="I14" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J14" t="n">
-        <v>286.4436427609762</v>
+        <v>286.4436427609767</v>
       </c>
       <c r="K14" t="n">
-        <v>717.5709378144504</v>
+        <v>717.5709378144502</v>
       </c>
       <c r="L14" t="n">
         <v>1304.699097753723</v>
@@ -5288,40 +5288,40 @@
         <v>1974.598848644288</v>
       </c>
       <c r="N14" t="n">
-        <v>2640.706280317077</v>
+        <v>2640.706280317076</v>
       </c>
       <c r="O14" t="n">
-        <v>3224.505001632093</v>
+        <v>3224.505001632092</v>
       </c>
       <c r="P14" t="n">
-        <v>3685.08932070615</v>
+        <v>3685.089320706149</v>
       </c>
       <c r="Q14" t="n">
         <v>3953.747203064042</v>
       </c>
       <c r="R14" t="n">
-        <v>3967.406461613082</v>
+        <v>3967.40646161308</v>
       </c>
       <c r="S14" t="n">
-        <v>3844.70313910707</v>
+        <v>3844.703139107069</v>
       </c>
       <c r="T14" t="n">
-        <v>3659.330495962742</v>
+        <v>3659.330495962741</v>
       </c>
       <c r="U14" t="n">
-        <v>3434.112555385016</v>
+        <v>3434.112555385015</v>
       </c>
       <c r="V14" t="n">
-        <v>3131.505681684743</v>
+        <v>3131.505681684741</v>
       </c>
       <c r="W14" t="n">
-        <v>3131.505681684743</v>
+        <v>3025.456828787062</v>
       </c>
       <c r="X14" t="n">
-        <v>2786.49593706696</v>
+        <v>2680.44708416928</v>
       </c>
       <c r="Y14" t="n">
-        <v>2424.812618734445</v>
+        <v>2318.763765836765</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>664.0301410079924</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7926860025368</v>
+        <v>504.7926860025369</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2581280294218</v>
+        <v>358.2581280294219</v>
       </c>
       <c r="G15" t="n">
         <v>220.9354375175871</v>
@@ -5352,25 +5352,25 @@
         <v>121.1659206182389</v>
       </c>
       <c r="I15" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J15" t="n">
-        <v>208.9994186606618</v>
+        <v>103.7977368675889</v>
       </c>
       <c r="K15" t="n">
-        <v>557.214965962158</v>
+        <v>452.013284169085</v>
       </c>
       <c r="L15" t="n">
-        <v>1086.838138063425</v>
+        <v>681.9763900374342</v>
       </c>
       <c r="M15" t="n">
-        <v>1407.173457593126</v>
+        <v>1002.311709567136</v>
       </c>
       <c r="N15" t="n">
-        <v>1751.694113230744</v>
+        <v>1705.776760064784</v>
       </c>
       <c r="O15" t="n">
-        <v>2000.447527314707</v>
+        <v>1954.530174148746</v>
       </c>
       <c r="P15" t="n">
         <v>2400.714707486746</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.9867683508528</v>
+        <v>159.3680975039177</v>
       </c>
       <c r="C16" t="n">
-        <v>369.5065990662429</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="D16" t="n">
-        <v>369.5065990662429</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="E16" t="n">
-        <v>250.0495191271466</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="F16" t="n">
-        <v>219.3994405243062</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="G16" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="H16" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="I16" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J16" t="n">
-        <v>96.61503586779475</v>
+        <v>96.61503586779466</v>
       </c>
       <c r="K16" t="n">
-        <v>236.8850348195494</v>
+        <v>236.8850348195492</v>
       </c>
       <c r="L16" t="n">
-        <v>464.1092499993346</v>
+        <v>464.1092499993345</v>
       </c>
       <c r="M16" t="n">
-        <v>712.5583684710672</v>
+        <v>712.5583684710671</v>
       </c>
       <c r="N16" t="n">
-        <v>961.1976942945971</v>
+        <v>961.197694294597</v>
       </c>
       <c r="O16" t="n">
         <v>1176.969110565466</v>
@@ -5458,28 +5458,28 @@
         <v>1381.57907127323</v>
       </c>
       <c r="R16" t="n">
-        <v>1381.57907127323</v>
+        <v>1284.031907841702</v>
       </c>
       <c r="S16" t="n">
-        <v>1381.57907127323</v>
+        <v>1106.7820001265</v>
       </c>
       <c r="T16" t="n">
-        <v>1184.831110343068</v>
+        <v>1106.7820001265</v>
       </c>
       <c r="U16" t="n">
-        <v>924.1403759314593</v>
+        <v>846.0912657148915</v>
       </c>
       <c r="V16" t="n">
-        <v>924.1403759314593</v>
+        <v>619.8627911523015</v>
       </c>
       <c r="W16" t="n">
-        <v>663.1792195377956</v>
+        <v>358.9016347586378</v>
       </c>
       <c r="X16" t="n">
-        <v>663.1792195377956</v>
+        <v>159.3680975039177</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.1792195377956</v>
+        <v>159.3680975039177</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>2012.094143569445</v>
       </c>
       <c r="C17" t="n">
-        <v>1705.304889382661</v>
+        <v>1705.30488938266</v>
       </c>
       <c r="D17" t="n">
         <v>1409.212453529537</v>
       </c>
       <c r="E17" t="n">
-        <v>1085.597463684921</v>
+        <v>1085.59746368492</v>
       </c>
       <c r="F17" t="n">
         <v>736.7848216489401</v>
       </c>
       <c r="G17" t="n">
-        <v>382.0921655618192</v>
+        <v>382.0921655618195</v>
       </c>
       <c r="H17" t="n">
-        <v>128.3144667463323</v>
+        <v>128.3144667463325</v>
       </c>
       <c r="I17" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J17" t="n">
-        <v>286.4436427609767</v>
+        <v>286.4436427609762</v>
       </c>
       <c r="K17" t="n">
-        <v>717.5709378144506</v>
+        <v>717.57093781445</v>
       </c>
       <c r="L17" t="n">
-        <v>1304.699097753723</v>
+        <v>1304.699097753722</v>
       </c>
       <c r="M17" t="n">
-        <v>1974.598848644289</v>
+        <v>1974.598848644287</v>
       </c>
       <c r="N17" t="n">
-        <v>2640.706280317077</v>
+        <v>2640.706280317076</v>
       </c>
       <c r="O17" t="n">
-        <v>3224.505001632093</v>
+        <v>3224.505001632092</v>
       </c>
       <c r="P17" t="n">
         <v>3685.08932070615</v>
       </c>
       <c r="Q17" t="n">
-        <v>3953.747203064043</v>
+        <v>3953.747203064042</v>
       </c>
       <c r="R17" t="n">
-        <v>3967.406461613082</v>
+        <v>3967.40646161308</v>
       </c>
       <c r="S17" t="n">
-        <v>3878.420388217401</v>
+        <v>3878.420388217399</v>
       </c>
       <c r="T17" t="n">
-        <v>3726.764994183403</v>
+        <v>3726.764994183402</v>
       </c>
       <c r="U17" t="n">
         <v>3535.264302716007</v>
       </c>
       <c r="V17" t="n">
-        <v>3266.374678126065</v>
+        <v>3266.374678126063</v>
       </c>
       <c r="W17" t="n">
-        <v>2975.779285609578</v>
+        <v>2975.779285609577</v>
       </c>
       <c r="X17" t="n">
-        <v>2664.486790102125</v>
+        <v>2664.486790102124</v>
       </c>
       <c r="Y17" t="n">
-        <v>2336.52072087994</v>
+        <v>2336.520720879939</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5577,10 @@
         <v>664.0301410079924</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7926860025368</v>
+        <v>504.7926860025369</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2581280294218</v>
+        <v>358.2581280294219</v>
       </c>
       <c r="G18" t="n">
         <v>220.9354375175871</v>
@@ -5589,25 +5589,25 @@
         <v>121.1659206182389</v>
       </c>
       <c r="I18" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J18" t="n">
-        <v>208.9994186606618</v>
+        <v>138.342934281815</v>
       </c>
       <c r="K18" t="n">
-        <v>557.2149659621581</v>
+        <v>263.7004943396524</v>
       </c>
       <c r="L18" t="n">
-        <v>1086.838138063425</v>
+        <v>793.3236664409192</v>
       </c>
       <c r="M18" t="n">
-        <v>1537.426320923335</v>
+        <v>1113.658985970621</v>
       </c>
       <c r="N18" t="n">
-        <v>1881.946976560953</v>
+        <v>1817.124036468269</v>
       </c>
       <c r="O18" t="n">
-        <v>2130.700390644915</v>
+        <v>2394.241446369564</v>
       </c>
       <c r="P18" t="n">
         <v>2576.884923982915</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.4276556163056</v>
+        <v>184.9165687038317</v>
       </c>
       <c r="C19" t="n">
-        <v>503.4276556163056</v>
+        <v>184.9165687038317</v>
       </c>
       <c r="D19" t="n">
-        <v>415.484278957597</v>
+        <v>165.0879600610274</v>
       </c>
       <c r="E19" t="n">
-        <v>329.744448128831</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="F19" t="n">
-        <v>245.0277633845478</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="G19" t="n">
-        <v>138.6937012028332</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="H19" t="n">
-        <v>138.6937012028332</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="I19" t="n">
-        <v>79.34812923226164</v>
+        <v>79.34812923226161</v>
       </c>
       <c r="J19" t="n">
-        <v>129.6613117208294</v>
+        <v>129.6613117208298</v>
       </c>
       <c r="K19" t="n">
-        <v>302.9775865256187</v>
+        <v>302.9775865256192</v>
       </c>
       <c r="L19" t="n">
-        <v>563.2480775584386</v>
+        <v>563.2480775584393</v>
       </c>
       <c r="M19" t="n">
-        <v>844.743471883206</v>
+        <v>844.7434718832068</v>
       </c>
       <c r="N19" t="n">
         <v>1126.429073559771</v>
       </c>
       <c r="O19" t="n">
-        <v>1375.246765683674</v>
+        <v>1375.246765683675</v>
       </c>
       <c r="P19" t="n">
-        <v>1573.427330771704</v>
+        <v>1573.427330771705</v>
       </c>
       <c r="Q19" t="n">
-        <v>1645.949278097508</v>
+        <v>1645.949278097509</v>
       </c>
       <c r="R19" t="n">
-        <v>1598.478475694012</v>
+        <v>1582.119363776312</v>
       </c>
       <c r="S19" t="n">
-        <v>1598.478475694012</v>
+        <v>1438.58670517144</v>
       </c>
       <c r="T19" t="n">
-        <v>1435.447763874179</v>
+        <v>1275.555993351608</v>
       </c>
       <c r="U19" t="n">
-        <v>1208.474278572902</v>
+        <v>1048.58250805033</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.963053120642</v>
+        <v>856.0712825980703</v>
       </c>
       <c r="W19" t="n">
-        <v>788.7191458373084</v>
+        <v>628.827375314737</v>
       </c>
       <c r="X19" t="n">
-        <v>622.9028576929181</v>
+        <v>463.011087170347</v>
       </c>
       <c r="Y19" t="n">
-        <v>622.9028576929181</v>
+        <v>304.3917707804441</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2012.094143569445</v>
+        <v>2012.094143569444</v>
       </c>
       <c r="C20" t="n">
-        <v>1705.304889382661</v>
+        <v>1705.30488938266</v>
       </c>
       <c r="D20" t="n">
         <v>1409.212453529537</v>
       </c>
       <c r="E20" t="n">
-        <v>1085.597463684921</v>
+        <v>1085.59746368492</v>
       </c>
       <c r="F20" t="n">
-        <v>736.7848216489401</v>
+        <v>736.7848216489397</v>
       </c>
       <c r="G20" t="n">
-        <v>382.0921655618192</v>
+        <v>382.0921655618189</v>
       </c>
       <c r="H20" t="n">
-        <v>128.3144667463323</v>
+        <v>128.3144667463321</v>
       </c>
       <c r="I20" t="n">
-        <v>79.34812923226166</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J20" t="n">
-        <v>286.4436427609767</v>
+        <v>286.4436427609771</v>
       </c>
       <c r="K20" t="n">
-        <v>717.570937814451</v>
+        <v>717.5709378144516</v>
       </c>
       <c r="L20" t="n">
         <v>1304.699097753724</v>
       </c>
       <c r="M20" t="n">
-        <v>1974.59884864429</v>
+        <v>1974.598848644289</v>
       </c>
       <c r="N20" t="n">
-        <v>2640.706280317078</v>
+        <v>2640.706280317077</v>
       </c>
       <c r="O20" t="n">
-        <v>3224.505001632095</v>
+        <v>3224.505001632094</v>
       </c>
       <c r="P20" t="n">
-        <v>3685.089320706152</v>
+        <v>3685.08932070615</v>
       </c>
       <c r="Q20" t="n">
-        <v>3953.747203064043</v>
+        <v>3953.747203064042</v>
       </c>
       <c r="R20" t="n">
-        <v>3967.406461613083</v>
+        <v>3967.406461613082</v>
       </c>
       <c r="S20" t="n">
         <v>3878.420388217401</v>
       </c>
       <c r="T20" t="n">
-        <v>3726.764994183404</v>
+        <v>3726.764994183403</v>
       </c>
       <c r="U20" t="n">
-        <v>3535.264302716008</v>
+        <v>3535.264302716006</v>
       </c>
       <c r="V20" t="n">
-        <v>3266.374678126065</v>
+        <v>3266.374678126063</v>
       </c>
       <c r="W20" t="n">
-        <v>2975.779285609578</v>
+        <v>2975.779285609576</v>
       </c>
       <c r="X20" t="n">
-        <v>2664.486790102125</v>
+        <v>2664.486790102123</v>
       </c>
       <c r="Y20" t="n">
-        <v>2336.52072087994</v>
+        <v>2336.520720879939</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>121.1659206182389</v>
       </c>
       <c r="I21" t="n">
-        <v>79.34812923226166</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J21" t="n">
-        <v>208.9994186606618</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="K21" t="n">
-        <v>557.2149659621582</v>
+        <v>427.5636765337579</v>
       </c>
       <c r="L21" t="n">
-        <v>1086.838138063425</v>
+        <v>957.1868486350246</v>
       </c>
       <c r="M21" t="n">
-        <v>1407.173457593127</v>
+        <v>1277.522168164726</v>
       </c>
       <c r="N21" t="n">
-        <v>2110.638508090775</v>
+        <v>1980.987218662374</v>
       </c>
       <c r="O21" t="n">
-        <v>2646.279482496244</v>
+        <v>2394.241446369564</v>
       </c>
       <c r="P21" t="n">
-        <v>2646.279482496244</v>
+        <v>2576.884923982915</v>
       </c>
       <c r="Q21" t="n">
         <v>2646.279482496244</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>447.7641214375519</v>
+        <v>642.0415602779735</v>
       </c>
       <c r="C22" t="n">
-        <v>341.0012012632722</v>
+        <v>535.278640103694</v>
       </c>
       <c r="D22" t="n">
-        <v>341.0012012632722</v>
+        <v>447.3352634449856</v>
       </c>
       <c r="E22" t="n">
-        <v>255.2613704345061</v>
+        <v>361.5954326162199</v>
       </c>
       <c r="F22" t="n">
-        <v>170.544685690223</v>
+        <v>276.8787478719368</v>
       </c>
       <c r="G22" t="n">
-        <v>170.544685690223</v>
+        <v>170.5446856902227</v>
       </c>
       <c r="H22" t="n">
-        <v>79.34812923226166</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="I22" t="n">
-        <v>79.34812923226166</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J22" t="n">
-        <v>129.6613117208294</v>
+        <v>129.6613117208295</v>
       </c>
       <c r="K22" t="n">
-        <v>302.9775865256187</v>
+        <v>302.977586525619</v>
       </c>
       <c r="L22" t="n">
-        <v>563.2480775584387</v>
+        <v>563.248077558439</v>
       </c>
       <c r="M22" t="n">
-        <v>844.743471883206</v>
+        <v>844.7434718832066</v>
       </c>
       <c r="N22" t="n">
         <v>1126.429073559771</v>
       </c>
       <c r="O22" t="n">
-        <v>1375.246765683674</v>
+        <v>1375.246765683675</v>
       </c>
       <c r="P22" t="n">
-        <v>1573.427330771704</v>
+        <v>1573.427330771705</v>
       </c>
       <c r="Q22" t="n">
-        <v>1645.949278097508</v>
+        <v>1645.949278097509</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.949278097508</v>
+        <v>1582.119363776311</v>
       </c>
       <c r="S22" t="n">
-        <v>1502.416619492636</v>
+        <v>1549.263009367691</v>
       </c>
       <c r="T22" t="n">
-        <v>1339.385907672804</v>
+        <v>1386.232297547859</v>
       </c>
       <c r="U22" t="n">
-        <v>1112.412422371526</v>
+        <v>1386.232297547859</v>
       </c>
       <c r="V22" t="n">
-        <v>919.9011969192658</v>
+        <v>1193.7210720956</v>
       </c>
       <c r="W22" t="n">
-        <v>692.6572896359323</v>
+        <v>966.4771648122663</v>
       </c>
       <c r="X22" t="n">
-        <v>526.8410014915421</v>
+        <v>800.6608766678763</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.7641214375519</v>
+        <v>642.0415602779735</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2012.094143569446</v>
       </c>
       <c r="C23" t="n">
-        <v>1705.304889382662</v>
+        <v>1705.304889382661</v>
       </c>
       <c r="D23" t="n">
-        <v>1409.212453529538</v>
+        <v>1409.212453529537</v>
       </c>
       <c r="E23" t="n">
-        <v>1085.597463684921</v>
+        <v>1085.59746368492</v>
       </c>
       <c r="F23" t="n">
-        <v>736.7848216489408</v>
+        <v>736.7848216489397</v>
       </c>
       <c r="G23" t="n">
-        <v>382.0921655618199</v>
+        <v>382.0921655618189</v>
       </c>
       <c r="H23" t="n">
-        <v>128.3144667463322</v>
+        <v>128.3144667463321</v>
       </c>
       <c r="I23" t="n">
         <v>79.34812923226164</v>
@@ -5990,13 +5990,13 @@
         <v>286.4436427609767</v>
       </c>
       <c r="K23" t="n">
-        <v>717.5709378144506</v>
+        <v>717.5709378144509</v>
       </c>
       <c r="L23" t="n">
         <v>1304.699097753723</v>
       </c>
       <c r="M23" t="n">
-        <v>1974.598848644289</v>
+        <v>1974.598848644288</v>
       </c>
       <c r="N23" t="n">
         <v>2640.706280317077</v>
@@ -6008,7 +6008,7 @@
         <v>3685.08932070615</v>
       </c>
       <c r="Q23" t="n">
-        <v>3953.747203064043</v>
+        <v>3953.747203064042</v>
       </c>
       <c r="R23" t="n">
         <v>3967.406461613082</v>
@@ -6020,19 +6020,19 @@
         <v>3726.764994183403</v>
       </c>
       <c r="U23" t="n">
-        <v>3535.264302716008</v>
+        <v>3535.264302716007</v>
       </c>
       <c r="V23" t="n">
-        <v>3266.374678126065</v>
+        <v>3266.374678126064</v>
       </c>
       <c r="W23" t="n">
         <v>2975.779285609578</v>
       </c>
       <c r="X23" t="n">
-        <v>2664.486790102126</v>
+        <v>2664.486790102125</v>
       </c>
       <c r="Y23" t="n">
-        <v>2336.520720879941</v>
+        <v>2336.52072087994</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>208.9994186606618</v>
       </c>
       <c r="K24" t="n">
-        <v>557.2149659621581</v>
+        <v>557.214965962158</v>
       </c>
       <c r="L24" t="n">
-        <v>1086.838138063425</v>
+        <v>787.1780718305072</v>
       </c>
       <c r="M24" t="n">
-        <v>1407.173457593127</v>
+        <v>1457.202554601814</v>
       </c>
       <c r="N24" t="n">
-        <v>1751.694113230745</v>
+        <v>2160.667605099462</v>
       </c>
       <c r="O24" t="n">
-        <v>2200.094949158244</v>
+        <v>2409.421019183424</v>
       </c>
       <c r="P24" t="n">
-        <v>2646.279482496244</v>
+        <v>2576.884923982915</v>
       </c>
       <c r="Q24" t="n">
         <v>2646.279482496244</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>397.0935934345907</v>
+        <v>350.7328568482217</v>
       </c>
       <c r="C25" t="n">
-        <v>397.0935934345907</v>
+        <v>350.7328568482217</v>
       </c>
       <c r="D25" t="n">
-        <v>309.1502167758822</v>
+        <v>262.7894801895133</v>
       </c>
       <c r="E25" t="n">
-        <v>223.4103859471163</v>
+        <v>255.2613704345057</v>
       </c>
       <c r="F25" t="n">
-        <v>138.6937012028331</v>
+        <v>170.5446856902227</v>
       </c>
       <c r="G25" t="n">
-        <v>138.6937012028331</v>
+        <v>170.5446856902227</v>
       </c>
       <c r="H25" t="n">
-        <v>138.6937012028331</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="I25" t="n">
         <v>79.34812923226164</v>
@@ -6154,7 +6154,7 @@
         <v>563.248077558439</v>
       </c>
       <c r="M25" t="n">
-        <v>844.7434718832063</v>
+        <v>844.7434718832066</v>
       </c>
       <c r="N25" t="n">
         <v>1126.429073559771</v>
@@ -6166,31 +6166,31 @@
         <v>1573.427330771705</v>
       </c>
       <c r="Q25" t="n">
-        <v>1645.949278097508</v>
+        <v>1645.949278097509</v>
       </c>
       <c r="R25" t="n">
-        <v>1582.119363776311</v>
+        <v>1582.119363776312</v>
       </c>
       <c r="S25" t="n">
-        <v>1438.586705171439</v>
+        <v>1438.58670517144</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.555993351607</v>
+        <v>1275.555993351608</v>
       </c>
       <c r="U25" t="n">
-        <v>1048.582508050328</v>
+        <v>1048.58250805033</v>
       </c>
       <c r="V25" t="n">
-        <v>1048.582508050328</v>
+        <v>856.0712825980702</v>
       </c>
       <c r="W25" t="n">
-        <v>821.338600766995</v>
+        <v>628.8273753147369</v>
       </c>
       <c r="X25" t="n">
-        <v>655.5223126226049</v>
+        <v>628.8273753147369</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5687955112032</v>
+        <v>470.2080589248341</v>
       </c>
     </row>
     <row r="26">
@@ -6218,28 +6218,28 @@
         <v>422.6021215663139</v>
       </c>
       <c r="H26" t="n">
-        <v>190.4877294999595</v>
+        <v>106.6511599971998</v>
       </c>
       <c r="I26" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J26" t="n">
-        <v>286.4436427609766</v>
+        <v>286.4436427609771</v>
       </c>
       <c r="K26" t="n">
-        <v>717.5709378144506</v>
+        <v>717.5709378144516</v>
       </c>
       <c r="L26" t="n">
-        <v>1304.699097753723</v>
+        <v>1304.699097753724</v>
       </c>
       <c r="M26" t="n">
-        <v>1974.598848644288</v>
+        <v>1974.598848644289</v>
       </c>
       <c r="N26" t="n">
         <v>2640.706280317077</v>
       </c>
       <c r="O26" t="n">
-        <v>3224.505001632093</v>
+        <v>3224.505001632094</v>
       </c>
       <c r="P26" t="n">
         <v>3685.08932070615</v>
@@ -6248,28 +6248,28 @@
         <v>3953.747203064042</v>
       </c>
       <c r="R26" t="n">
-        <v>3967.406461613081</v>
+        <v>3967.406461613082</v>
       </c>
       <c r="S26" t="n">
-        <v>3816.247125463773</v>
+        <v>3900.083694966533</v>
       </c>
       <c r="T26" t="n">
-        <v>3686.255038178907</v>
+        <v>3696.65171495296</v>
       </c>
       <c r="U26" t="n">
         <v>3442.977760731937</v>
       </c>
       <c r="V26" t="n">
-        <v>3111.914873388367</v>
+        <v>3195.751442891126</v>
       </c>
       <c r="W26" t="n">
-        <v>2842.982787621012</v>
+        <v>2926.819357123772</v>
       </c>
       <c r="X26" t="n">
-        <v>2553.353598862692</v>
+        <v>2637.190168365451</v>
       </c>
       <c r="Y26" t="n">
-        <v>2247.05083638964</v>
+        <v>2330.887405892399</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>121.1659206182389</v>
       </c>
       <c r="I27" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J27" t="n">
         <v>208.9994186606618</v>
       </c>
       <c r="K27" t="n">
-        <v>557.214965962158</v>
+        <v>334.3569787184992</v>
       </c>
       <c r="L27" t="n">
-        <v>1086.838138063425</v>
+        <v>863.9801508197659</v>
       </c>
       <c r="M27" t="n">
-        <v>1756.862620834731</v>
+        <v>1184.315470349468</v>
       </c>
       <c r="N27" t="n">
-        <v>2145.488032285602</v>
+        <v>1887.780520847116</v>
       </c>
       <c r="O27" t="n">
-        <v>2394.241446369564</v>
+        <v>2130.700390644915</v>
       </c>
       <c r="P27" t="n">
         <v>2576.884923982915</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>549.743985004619</v>
+        <v>549.7439850046194</v>
       </c>
       <c r="C28" t="n">
-        <v>464.6443715794719</v>
+        <v>464.6443715794722</v>
       </c>
       <c r="D28" t="n">
-        <v>398.364301669896</v>
+        <v>398.3643016698961</v>
       </c>
       <c r="E28" t="n">
-        <v>334.2877775902625</v>
+        <v>334.2877775902626</v>
       </c>
       <c r="F28" t="n">
-        <v>271.2343995951118</v>
+        <v>271.2343995951119</v>
       </c>
       <c r="G28" t="n">
-        <v>186.56364416253</v>
+        <v>186.5636441625294</v>
       </c>
       <c r="H28" t="n">
         <v>117.0303944537006</v>
       </c>
       <c r="I28" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J28" t="n">
-        <v>150.8935186656543</v>
+        <v>150.8935186656542</v>
       </c>
       <c r="K28" t="n">
-        <v>345.4420004152684</v>
+        <v>345.4420004152682</v>
       </c>
       <c r="L28" t="n">
-        <v>626.944698392913</v>
+        <v>626.9446983929129</v>
       </c>
       <c r="M28" t="n">
-        <v>929.6722996625051</v>
+        <v>929.672299662505</v>
       </c>
       <c r="N28" t="n">
-        <v>1232.590108283895</v>
+        <v>1232.590108283894</v>
       </c>
       <c r="O28" t="n">
         <v>1502.640007352623</v>
@@ -6418,16 +6418,16 @@
         <v>1305.093390605456</v>
       </c>
       <c r="V28" t="n">
-        <v>1134.245471902328</v>
+        <v>1134.245471902329</v>
       </c>
       <c r="W28" t="n">
-        <v>928.6648713681273</v>
+        <v>928.6648713681276</v>
       </c>
       <c r="X28" t="n">
-        <v>784.5118899728695</v>
+        <v>784.5118899728699</v>
       </c>
       <c r="Y28" t="n">
-        <v>647.5558803320992</v>
+        <v>647.5558803320994</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1085.59746368492</v>
       </c>
       <c r="F29" t="n">
-        <v>736.7848216489397</v>
+        <v>736.7848216489398</v>
       </c>
       <c r="G29" t="n">
-        <v>382.0921655618189</v>
+        <v>382.092165561819</v>
       </c>
       <c r="H29" t="n">
-        <v>128.3144667463321</v>
+        <v>128.3144667463322</v>
       </c>
       <c r="I29" t="n">
         <v>79.34812923226164</v>
@@ -6464,13 +6464,13 @@
         <v>286.4436427609767</v>
       </c>
       <c r="K29" t="n">
-        <v>717.5709378144511</v>
+        <v>717.5709378144506</v>
       </c>
       <c r="L29" t="n">
-        <v>1304.699097753724</v>
+        <v>1304.699097753723</v>
       </c>
       <c r="M29" t="n">
-        <v>1974.598848644289</v>
+        <v>1974.598848644288</v>
       </c>
       <c r="N29" t="n">
         <v>2640.706280317077</v>
@@ -6488,10 +6488,10 @@
         <v>3967.406461613082</v>
       </c>
       <c r="S29" t="n">
-        <v>3878.420388217399</v>
+        <v>3878.4203882174</v>
       </c>
       <c r="T29" t="n">
-        <v>3726.764994183402</v>
+        <v>3726.764994183403</v>
       </c>
       <c r="U29" t="n">
         <v>3535.264302716007</v>
@@ -6540,22 +6540,22 @@
         <v>79.34812923226164</v>
       </c>
       <c r="J30" t="n">
-        <v>208.9994186606618</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="K30" t="n">
-        <v>557.214965962158</v>
+        <v>427.5636765337579</v>
       </c>
       <c r="L30" t="n">
-        <v>1086.838138063425</v>
+        <v>957.1868486350246</v>
       </c>
       <c r="M30" t="n">
-        <v>1624.797160151815</v>
+        <v>1361.256104427166</v>
       </c>
       <c r="N30" t="n">
-        <v>1969.317815789433</v>
+        <v>1705.776760064784</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.071229873395</v>
+        <v>1954.530174148746</v>
       </c>
       <c r="P30" t="n">
         <v>2400.714707486746</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>503.8565136088702</v>
+        <v>447.924429385315</v>
       </c>
       <c r="C31" t="n">
-        <v>397.0935934345905</v>
+        <v>341.1615092110353</v>
       </c>
       <c r="D31" t="n">
-        <v>309.150216775882</v>
+        <v>253.2181325523268</v>
       </c>
       <c r="E31" t="n">
-        <v>223.4103859471162</v>
+        <v>253.2181325523268</v>
       </c>
       <c r="F31" t="n">
-        <v>138.693701202833</v>
+        <v>245.0277633845473</v>
       </c>
       <c r="G31" t="n">
         <v>138.693701202833</v>
@@ -6622,10 +6622,10 @@
         <v>129.6613117208295</v>
       </c>
       <c r="K31" t="n">
-        <v>302.9775865256189</v>
+        <v>302.9775865256188</v>
       </c>
       <c r="L31" t="n">
-        <v>563.2480775584389</v>
+        <v>563.2480775584388</v>
       </c>
       <c r="M31" t="n">
         <v>844.7434718832063</v>
@@ -6646,25 +6646,25 @@
         <v>1582.119363776311</v>
       </c>
       <c r="S31" t="n">
-        <v>1438.586705171439</v>
+        <v>1582.119363776311</v>
       </c>
       <c r="T31" t="n">
-        <v>1438.586705171439</v>
+        <v>1419.088651956479</v>
       </c>
       <c r="U31" t="n">
-        <v>1211.613219870161</v>
+        <v>1192.115166655201</v>
       </c>
       <c r="V31" t="n">
-        <v>1019.101994417901</v>
+        <v>999.6039412029413</v>
       </c>
       <c r="W31" t="n">
-        <v>791.8580871345678</v>
+        <v>772.360033919608</v>
       </c>
       <c r="X31" t="n">
-        <v>781.9510320753855</v>
+        <v>606.5437457752178</v>
       </c>
       <c r="Y31" t="n">
-        <v>623.3317156854825</v>
+        <v>447.924429385315</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6683,16 @@
         <v>1458.172382015341</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.220698919857</v>
+        <v>1072.384129417097</v>
       </c>
       <c r="F32" t="n">
-        <v>755.6314709043023</v>
+        <v>671.7949014015428</v>
       </c>
       <c r="G32" t="n">
-        <v>422.6021215663139</v>
+        <v>338.7655520635544</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4877294999595</v>
+        <v>106.6511599971998</v>
       </c>
       <c r="I32" t="n">
         <v>79.34812923226163</v>
@@ -6725,10 +6725,10 @@
         <v>3967.406461613081</v>
       </c>
       <c r="S32" t="n">
-        <v>3900.083694966532</v>
+        <v>3816.247125463773</v>
       </c>
       <c r="T32" t="n">
-        <v>3770.091607681667</v>
+        <v>3686.255038178907</v>
       </c>
       <c r="U32" t="n">
         <v>3516.417653460644</v>
@@ -6737,13 +6737,13 @@
         <v>3269.191335619833</v>
       </c>
       <c r="W32" t="n">
-        <v>2916.422680349719</v>
+        <v>3000.259249852478</v>
       </c>
       <c r="X32" t="n">
-        <v>2626.793491591398</v>
+        <v>2710.630061094158</v>
       </c>
       <c r="Y32" t="n">
-        <v>2320.490729118346</v>
+        <v>2404.327298621106</v>
       </c>
     </row>
     <row r="33">
@@ -6780,13 +6780,13 @@
         <v>79.34812923226163</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5636765337578</v>
+        <v>204.705689290099</v>
       </c>
       <c r="L33" t="n">
-        <v>957.1868486350245</v>
+        <v>734.3288613913658</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.522168164726</v>
+        <v>1265.852765291785</v>
       </c>
       <c r="N33" t="n">
         <v>1969.317815789433</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>549.7439850046194</v>
+        <v>549.7439850046187</v>
       </c>
       <c r="C34" t="n">
-        <v>464.6443715794721</v>
+        <v>464.6443715794715</v>
       </c>
       <c r="D34" t="n">
-        <v>398.364301669896</v>
+        <v>398.3643016698953</v>
       </c>
       <c r="E34" t="n">
-        <v>334.2877775902626</v>
+        <v>334.2877775902618</v>
       </c>
       <c r="F34" t="n">
-        <v>271.2343995951119</v>
+        <v>271.2343995951111</v>
       </c>
       <c r="G34" t="n">
         <v>186.5636441625293</v>
       </c>
       <c r="H34" t="n">
-        <v>117.0303944537006</v>
+        <v>117.0303944537007</v>
       </c>
       <c r="I34" t="n">
         <v>79.34812923226163</v>
       </c>
       <c r="J34" t="n">
-        <v>150.8935186656541</v>
+        <v>150.8935186656539</v>
       </c>
       <c r="K34" t="n">
-        <v>345.4420004152682</v>
+        <v>345.442000415268</v>
       </c>
       <c r="L34" t="n">
-        <v>626.9446983929129</v>
+        <v>626.9446983929126</v>
       </c>
       <c r="M34" t="n">
-        <v>929.672299662505</v>
+        <v>929.6722996625048</v>
       </c>
       <c r="N34" t="n">
-        <v>1232.590108283895</v>
+        <v>1232.590108283894</v>
       </c>
       <c r="O34" t="n">
-        <v>1502.640007352623</v>
+        <v>1502.640007352622</v>
       </c>
       <c r="P34" t="n">
-        <v>1722.052779385478</v>
+        <v>1722.052779385477</v>
       </c>
       <c r="Q34" t="n">
-        <v>1815.806933656106</v>
+        <v>1815.806933656105</v>
       </c>
       <c r="R34" t="n">
-        <v>1773.640326084041</v>
+        <v>1773.64032608404</v>
       </c>
       <c r="S34" t="n">
         <v>1651.770974228301</v>
       </c>
       <c r="T34" t="n">
-        <v>1510.403569157602</v>
+        <v>1510.403569157601</v>
       </c>
       <c r="U34" t="n">
-        <v>1305.093390605456</v>
+        <v>1305.093390605455</v>
       </c>
       <c r="V34" t="n">
-        <v>1134.245471902329</v>
+        <v>1134.245471902328</v>
       </c>
       <c r="W34" t="n">
-        <v>928.6648713681277</v>
+        <v>928.664871368127</v>
       </c>
       <c r="X34" t="n">
-        <v>784.51188997287</v>
+        <v>784.5118899728693</v>
       </c>
       <c r="Y34" t="n">
-        <v>647.5558803320994</v>
+        <v>647.5558803320988</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2111.960704833797</v>
+        <v>2017.727458556984</v>
       </c>
       <c r="C35" t="n">
-        <v>1826.834757396145</v>
+        <v>1732.601511119332</v>
       </c>
       <c r="D35" t="n">
-        <v>1468.569058789395</v>
+        <v>1458.172382015342</v>
       </c>
       <c r="E35" t="n">
-        <v>1082.78080619115</v>
+        <v>1156.220698919857</v>
       </c>
       <c r="F35" t="n">
-        <v>671.7949014015428</v>
+        <v>829.071363633009</v>
       </c>
       <c r="G35" t="n">
-        <v>338.7655520635544</v>
+        <v>496.0420142950206</v>
       </c>
       <c r="H35" t="n">
-        <v>106.6511599971999</v>
+        <v>180.0910527259065</v>
       </c>
       <c r="I35" t="n">
         <v>79.34812923226164</v>
       </c>
       <c r="J35" t="n">
-        <v>286.4436427609767</v>
+        <v>286.4436427609771</v>
       </c>
       <c r="K35" t="n">
-        <v>717.5709378144506</v>
+        <v>717.5709378144516</v>
       </c>
       <c r="L35" t="n">
-        <v>1304.699097753723</v>
+        <v>1304.699097753724</v>
       </c>
       <c r="M35" t="n">
-        <v>1974.598848644288</v>
+        <v>1974.598848644289</v>
       </c>
       <c r="N35" t="n">
         <v>2640.706280317077</v>
       </c>
       <c r="O35" t="n">
-        <v>3224.505001632093</v>
+        <v>3224.505001632094</v>
       </c>
       <c r="P35" t="n">
         <v>3685.08932070615</v>
@@ -6974,13 +6974,13 @@
         <v>3353.027905122593</v>
       </c>
       <c r="W35" t="n">
-        <v>3084.095819355238</v>
+        <v>3000.259249852479</v>
       </c>
       <c r="X35" t="n">
-        <v>2794.466630596918</v>
+        <v>2710.630061094158</v>
       </c>
       <c r="Y35" t="n">
-        <v>2414.723975395159</v>
+        <v>2320.490729118347</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>79.34812923226164</v>
       </c>
       <c r="J36" t="n">
-        <v>79.34812923226164</v>
+        <v>208.9994186606618</v>
       </c>
       <c r="K36" t="n">
-        <v>204.705689290099</v>
+        <v>452.0132841690848</v>
       </c>
       <c r="L36" t="n">
-        <v>734.3288613913658</v>
+        <v>681.9763900374339</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.664180921068</v>
+        <v>1002.311709567136</v>
       </c>
       <c r="N36" t="n">
-        <v>1399.184836558686</v>
+        <v>1705.776760064784</v>
       </c>
       <c r="O36" t="n">
         <v>1954.530174148746</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.7439850046186</v>
+        <v>549.7439850046188</v>
       </c>
       <c r="C37" t="n">
-        <v>464.6443715794713</v>
+        <v>464.6443715794716</v>
       </c>
       <c r="D37" t="n">
-        <v>398.3643016698952</v>
+        <v>398.3643016698954</v>
       </c>
       <c r="E37" t="n">
-        <v>334.2877775902617</v>
+        <v>334.287777590262</v>
       </c>
       <c r="F37" t="n">
-        <v>271.234399595111</v>
+        <v>271.2343995951113</v>
       </c>
       <c r="G37" t="n">
-        <v>186.5636441625295</v>
+        <v>186.5636441625294</v>
       </c>
       <c r="H37" t="n">
         <v>117.0303944537007</v>
@@ -7093,16 +7093,16 @@
         <v>79.34812923226164</v>
       </c>
       <c r="J37" t="n">
-        <v>150.8935186656541</v>
+        <v>150.8935186656542</v>
       </c>
       <c r="K37" t="n">
-        <v>345.4420004152681</v>
+        <v>345.4420004152682</v>
       </c>
       <c r="L37" t="n">
-        <v>626.9446983929123</v>
+        <v>626.9446983929129</v>
       </c>
       <c r="M37" t="n">
-        <v>929.6722996625048</v>
+        <v>929.6722996625044</v>
       </c>
       <c r="N37" t="n">
         <v>1232.590108283894</v>
@@ -7120,10 +7120,10 @@
         <v>1773.64032608404</v>
       </c>
       <c r="S37" t="n">
-        <v>1651.770974228301</v>
+        <v>1651.7709742283</v>
       </c>
       <c r="T37" t="n">
-        <v>1510.403569157601</v>
+        <v>1510.4035691576</v>
       </c>
       <c r="U37" t="n">
         <v>1305.093390605455</v>
@@ -7138,7 +7138,7 @@
         <v>784.5118899728693</v>
       </c>
       <c r="Y37" t="n">
-        <v>647.5558803320987</v>
+        <v>647.5558803320989</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1860.450996325518</v>
+        <v>2101.564028059744</v>
       </c>
       <c r="C38" t="n">
-        <v>1575.325048887866</v>
+        <v>1816.438080622092</v>
       </c>
       <c r="D38" t="n">
-        <v>1300.895919783875</v>
+        <v>1468.569058789395</v>
       </c>
       <c r="E38" t="n">
-        <v>998.9442366883907</v>
+        <v>1166.61737569391</v>
       </c>
       <c r="F38" t="n">
-        <v>671.7949014015428</v>
+        <v>839.4680404070621</v>
       </c>
       <c r="G38" t="n">
-        <v>338.7655520635544</v>
+        <v>422.602121566314</v>
       </c>
       <c r="H38" t="n">
-        <v>106.6511599971998</v>
+        <v>190.4877294999595</v>
       </c>
       <c r="I38" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J38" t="n">
         <v>286.4436427609766</v>
@@ -7196,10 +7196,10 @@
         <v>3953.747203064042</v>
       </c>
       <c r="R38" t="n">
-        <v>3967.406461613081</v>
+        <v>3967.406461613082</v>
       </c>
       <c r="S38" t="n">
-        <v>3900.083694966532</v>
+        <v>3900.083694966533</v>
       </c>
       <c r="T38" t="n">
         <v>3770.091607681667</v>
@@ -7208,16 +7208,16 @@
         <v>3600.254222963404</v>
       </c>
       <c r="V38" t="n">
-        <v>3269.191335619833</v>
+        <v>3353.027905122593</v>
       </c>
       <c r="W38" t="n">
-        <v>2916.422680349719</v>
+        <v>3000.259249852479</v>
       </c>
       <c r="X38" t="n">
-        <v>2542.956922088639</v>
+        <v>2710.630061094158</v>
       </c>
       <c r="Y38" t="n">
-        <v>2163.214266886881</v>
+        <v>2404.327298621106</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>121.1659206182389</v>
       </c>
       <c r="I39" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J39" t="n">
-        <v>79.34812923226163</v>
+        <v>208.9994186606618</v>
       </c>
       <c r="K39" t="n">
-        <v>79.34812923226163</v>
+        <v>557.214965962158</v>
       </c>
       <c r="L39" t="n">
-        <v>79.34812923226163</v>
+        <v>557.214965962158</v>
       </c>
       <c r="M39" t="n">
-        <v>673.9477137498025</v>
+        <v>1227.239448733465</v>
       </c>
       <c r="N39" t="n">
-        <v>1377.41276424745</v>
+        <v>1640.9538199721</v>
       </c>
       <c r="O39" t="n">
-        <v>1954.530174148746</v>
+        <v>2218.071229873395</v>
       </c>
       <c r="P39" t="n">
         <v>2400.714707486746</v>
@@ -7309,7 +7309,7 @@
         <v>549.7439850046187</v>
       </c>
       <c r="C40" t="n">
-        <v>464.6443715794714</v>
+        <v>464.6443715794715</v>
       </c>
       <c r="D40" t="n">
         <v>398.3643016698953</v>
@@ -7318,34 +7318,34 @@
         <v>334.2877775902618</v>
       </c>
       <c r="F40" t="n">
-        <v>271.234399595111</v>
+        <v>271.2343995951111</v>
       </c>
       <c r="G40" t="n">
-        <v>186.5636441625292</v>
+        <v>186.5636441625293</v>
       </c>
       <c r="H40" t="n">
-        <v>117.0303944537004</v>
+        <v>117.0303944537007</v>
       </c>
       <c r="I40" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J40" t="n">
-        <v>150.8935186656542</v>
+        <v>150.8935186656541</v>
       </c>
       <c r="K40" t="n">
-        <v>345.4420004152682</v>
+        <v>345.4420004152683</v>
       </c>
       <c r="L40" t="n">
         <v>626.9446983929129</v>
       </c>
       <c r="M40" t="n">
-        <v>929.6722996625048</v>
+        <v>929.672299662505</v>
       </c>
       <c r="N40" t="n">
         <v>1232.590108283894</v>
       </c>
       <c r="O40" t="n">
-        <v>1502.640007352622</v>
+        <v>1502.640007352623</v>
       </c>
       <c r="P40" t="n">
         <v>1722.052779385477</v>
@@ -7357,7 +7357,7 @@
         <v>1773.64032608404</v>
       </c>
       <c r="S40" t="n">
-        <v>1651.770974228301</v>
+        <v>1651.7709742283</v>
       </c>
       <c r="T40" t="n">
         <v>1510.403569157601</v>
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1860.450996325518</v>
+        <v>1944.287565828278</v>
       </c>
       <c r="C41" t="n">
-        <v>1575.325048887866</v>
+        <v>1659.161618390626</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.895919783875</v>
+        <v>1384.732489286635</v>
       </c>
       <c r="E41" t="n">
-        <v>998.9442366883907</v>
+        <v>1082.78080619115</v>
       </c>
       <c r="F41" t="n">
         <v>671.7949014015428</v>
       </c>
       <c r="G41" t="n">
-        <v>338.7655520635543</v>
+        <v>338.7655520635544</v>
       </c>
       <c r="H41" t="n">
         <v>106.6511599971998</v>
       </c>
       <c r="I41" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J41" t="n">
         <v>286.4436427609766</v>
       </c>
       <c r="K41" t="n">
-        <v>717.5709378144504</v>
+        <v>717.5709378144506</v>
       </c>
       <c r="L41" t="n">
-        <v>1304.699097753723</v>
+        <v>1304.699097753724</v>
       </c>
       <c r="M41" t="n">
-        <v>1974.598848644288</v>
+        <v>1974.598848644289</v>
       </c>
       <c r="N41" t="n">
         <v>2640.706280317077</v>
@@ -7433,28 +7433,28 @@
         <v>3953.747203064042</v>
       </c>
       <c r="R41" t="n">
-        <v>3967.406461613081</v>
+        <v>3967.406461613082</v>
       </c>
       <c r="S41" t="n">
-        <v>3900.083694966532</v>
+        <v>3816.247125463773</v>
       </c>
       <c r="T41" t="n">
-        <v>3770.091607681667</v>
+        <v>3686.255038178908</v>
       </c>
       <c r="U41" t="n">
-        <v>3600.254222963404</v>
+        <v>3516.417653460644</v>
       </c>
       <c r="V41" t="n">
         <v>3269.191335619833</v>
       </c>
       <c r="W41" t="n">
-        <v>2916.422680349719</v>
+        <v>2926.819357123772</v>
       </c>
       <c r="X41" t="n">
-        <v>2542.956922088639</v>
+        <v>2553.353598862692</v>
       </c>
       <c r="Y41" t="n">
-        <v>2163.214266886881</v>
+        <v>2247.05083638964</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>121.1659206182389</v>
       </c>
       <c r="I42" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J42" t="n">
         <v>208.9994186606618</v>
       </c>
       <c r="K42" t="n">
-        <v>557.214965962158</v>
+        <v>334.3569787184992</v>
       </c>
       <c r="L42" t="n">
-        <v>1086.838138063425</v>
+        <v>564.3200845868483</v>
       </c>
       <c r="M42" t="n">
-        <v>1756.862620834731</v>
+        <v>1032.892108609833</v>
       </c>
       <c r="N42" t="n">
-        <v>2397.526068412282</v>
+        <v>1377.41276424745</v>
       </c>
       <c r="O42" t="n">
-        <v>2646.279482496244</v>
+        <v>1954.530174148746</v>
       </c>
       <c r="P42" t="n">
-        <v>2646.279482496244</v>
+        <v>2400.714707486746</v>
       </c>
       <c r="Q42" t="n">
         <v>2646.279482496244</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.7439850046187</v>
+        <v>549.7439850046192</v>
       </c>
       <c r="C43" t="n">
-        <v>464.6443715794715</v>
+        <v>464.6443715794719</v>
       </c>
       <c r="D43" t="n">
-        <v>398.3643016698954</v>
+        <v>398.3643016698958</v>
       </c>
       <c r="E43" t="n">
-        <v>334.2877775902619</v>
+        <v>334.2877775902624</v>
       </c>
       <c r="F43" t="n">
-        <v>271.2343995951112</v>
+        <v>271.2343995951117</v>
       </c>
       <c r="G43" t="n">
-        <v>186.5636441625294</v>
+        <v>186.5636441625298</v>
       </c>
       <c r="H43" t="n">
-        <v>117.0303944537006</v>
+        <v>117.0303944537007</v>
       </c>
       <c r="I43" t="n">
-        <v>79.34812923226163</v>
+        <v>79.34812923226164</v>
       </c>
       <c r="J43" t="n">
-        <v>150.8935186656541</v>
+        <v>150.8935186656542</v>
       </c>
       <c r="K43" t="n">
-        <v>345.4420004152685</v>
+        <v>345.4420004152682</v>
       </c>
       <c r="L43" t="n">
-        <v>626.9446983929131</v>
+        <v>626.9446983929129</v>
       </c>
       <c r="M43" t="n">
-        <v>929.6722996625051</v>
+        <v>929.6722996625049</v>
       </c>
       <c r="N43" t="n">
-        <v>1232.590108283895</v>
+        <v>1232.590108283894</v>
       </c>
       <c r="O43" t="n">
         <v>1502.640007352623</v>
@@ -7588,10 +7588,10 @@
         <v>1722.052779385477</v>
       </c>
       <c r="Q43" t="n">
-        <v>1815.806933656106</v>
+        <v>1815.806933656105</v>
       </c>
       <c r="R43" t="n">
-        <v>1773.640326084041</v>
+        <v>1773.64032608404</v>
       </c>
       <c r="S43" t="n">
         <v>1651.770974228301</v>
@@ -7603,16 +7603,16 @@
         <v>1305.093390605456</v>
       </c>
       <c r="V43" t="n">
-        <v>1134.245471902329</v>
+        <v>1134.245471902328</v>
       </c>
       <c r="W43" t="n">
-        <v>928.6648713681278</v>
+        <v>928.6648713681274</v>
       </c>
       <c r="X43" t="n">
-        <v>784.51188997287</v>
+        <v>784.5118899728698</v>
       </c>
       <c r="Y43" t="n">
-        <v>647.5558803320988</v>
+        <v>647.5558803320993</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1860.450996325518</v>
+        <v>2101.564028059744</v>
       </c>
       <c r="C44" t="n">
-        <v>1575.325048887866</v>
+        <v>1816.438080622092</v>
       </c>
       <c r="D44" t="n">
-        <v>1300.895919783875</v>
+        <v>1468.569058789395</v>
       </c>
       <c r="E44" t="n">
-        <v>998.9442366883907</v>
+        <v>1166.61737569391</v>
       </c>
       <c r="F44" t="n">
-        <v>671.7949014015428</v>
+        <v>755.6314709043024</v>
       </c>
       <c r="G44" t="n">
-        <v>338.7655520635544</v>
+        <v>422.6021215663139</v>
       </c>
       <c r="H44" t="n">
         <v>106.6511599971999</v>
@@ -7649,10 +7649,10 @@
         <v>286.4436427609767</v>
       </c>
       <c r="K44" t="n">
-        <v>717.5709378144511</v>
+        <v>717.5709378144509</v>
       </c>
       <c r="L44" t="n">
-        <v>1304.699097753724</v>
+        <v>1304.699097753723</v>
       </c>
       <c r="M44" t="n">
         <v>1974.598848644289</v>
@@ -7682,16 +7682,16 @@
         <v>3600.254222963404</v>
       </c>
       <c r="V44" t="n">
-        <v>3269.191335619833</v>
+        <v>3353.027905122593</v>
       </c>
       <c r="W44" t="n">
-        <v>2916.422680349719</v>
+        <v>3084.095819355238</v>
       </c>
       <c r="X44" t="n">
-        <v>2542.956922088639</v>
+        <v>2794.466630596918</v>
       </c>
       <c r="Y44" t="n">
-        <v>2163.214266886881</v>
+        <v>2488.163868123866</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>79.34812923226164</v>
       </c>
       <c r="K45" t="n">
-        <v>204.705689290099</v>
+        <v>427.5636765337579</v>
       </c>
       <c r="L45" t="n">
-        <v>734.3288613913658</v>
+        <v>443.6345031993138</v>
       </c>
       <c r="M45" t="n">
-        <v>1361.256104427166</v>
+        <v>1113.658985970621</v>
       </c>
       <c r="N45" t="n">
-        <v>1705.776760064784</v>
+        <v>1817.124036468269</v>
       </c>
       <c r="O45" t="n">
-        <v>1954.530174148746</v>
+        <v>2394.241446369564</v>
       </c>
       <c r="P45" t="n">
-        <v>2400.714707486746</v>
+        <v>2576.884923982915</v>
       </c>
       <c r="Q45" t="n">
         <v>2646.279482496244</v>
@@ -7804,13 +7804,13 @@
         <v>79.34812923226164</v>
       </c>
       <c r="J46" t="n">
-        <v>150.8935186656543</v>
+        <v>150.8935186656541</v>
       </c>
       <c r="K46" t="n">
-        <v>345.4420004152683</v>
+        <v>345.4420004152682</v>
       </c>
       <c r="L46" t="n">
-        <v>626.9446983929129</v>
+        <v>626.9446983929128</v>
       </c>
       <c r="M46" t="n">
         <v>929.672299662505</v>
@@ -7819,34 +7819,34 @@
         <v>1232.590108283894</v>
       </c>
       <c r="O46" t="n">
-        <v>1502.640007352623</v>
+        <v>1502.640007352622</v>
       </c>
       <c r="P46" t="n">
         <v>1722.052779385477</v>
       </c>
       <c r="Q46" t="n">
-        <v>1815.806933656106</v>
+        <v>1815.806933656105</v>
       </c>
       <c r="R46" t="n">
         <v>1773.64032608404</v>
       </c>
       <c r="S46" t="n">
-        <v>1651.770974228301</v>
+        <v>1651.7709742283</v>
       </c>
       <c r="T46" t="n">
         <v>1510.403569157601</v>
       </c>
       <c r="U46" t="n">
-        <v>1305.093390605456</v>
+        <v>1305.093390605455</v>
       </c>
       <c r="V46" t="n">
-        <v>1134.245471902329</v>
+        <v>1134.245471902328</v>
       </c>
       <c r="W46" t="n">
-        <v>928.6648713681275</v>
+        <v>928.6648713681268</v>
       </c>
       <c r="X46" t="n">
-        <v>784.5118899728698</v>
+        <v>784.5118899728691</v>
       </c>
       <c r="Y46" t="n">
         <v>647.555880332099</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>303.1298668077555</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9966,7 +9966,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>387.9698503008074</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>154.7875380279105</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>194.7357359546005</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>149.6477427878156</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.6903702197484</v>
       </c>
       <c r="U11" t="n">
         <v>251.1372146788129</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>310.7976242049887</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,22 +23422,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>89.04859895574755</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.822251685988</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.8361210194725</v>
       </c>
       <c r="I13" t="n">
         <v>120.3036463769567</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10.73013367299217</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>124.7431453040765</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>203.6488621449142</v>
       </c>
       <c r="T13" t="n">
-        <v>222.9519348277247</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2552805743561</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>93.77249838973711</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>179.6316340778559</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>284.619998446559</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>321.0695152105491</v>
+        <v>216.0811508418479</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>151.6605266750734</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>59.85559900282433</v>
       </c>
       <c r="D16" t="n">
         <v>120.4440195113484</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>118.2625091397052</v>
       </c>
       <c r="F16" t="n">
-        <v>86.90601669925532</v>
+        <v>117.2495945160673</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.6507981791241</v>
       </c>
       <c r="H16" t="n">
         <v>123.6646675126086</v>
       </c>
       <c r="I16" t="n">
-        <v>92.13219287009274</v>
+        <v>92.13219287009275</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>96.57169179721255</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>175.4774086380502</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>194.7804813208608</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>223.9661898169641</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>197.5382018821732</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>190.4131998452308</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>105.695290972537</v>
+        <v>105.6952909725368</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>67.43362033574498</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>83.86951789684016</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>105.2707215598969</v>
       </c>
       <c r="H19" t="n">
-        <v>90.28459089338166</v>
+        <v>90.28459089338145</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>58.75211625086562</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>16.19552079852449</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.0973320188233</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.0331232260039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.2804500558464</v>
+        <v>118.2804500558462</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>87.06394289212147</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>105.2707215598971</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>58.75211625086578</v>
+        <v>58.75211625086561</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.19161517798558</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>109.5695411542888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.7037504482651</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>78.74701197255365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>105.6952909725369</v>
+        <v>105.6952909725368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>77.42960386302063</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>105.2707215598971</v>
+        <v>105.270721559897</v>
       </c>
       <c r="H25" t="n">
-        <v>90.2845908933816</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>58.75211625086561</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>190.5861131977371</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>164.1581252629461</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.46914128571624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>118.2804500558463</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.88243252047819</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>75.76105242073848</v>
       </c>
       <c r="G31" t="n">
-        <v>105.270721559897</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>90.28459089338155</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.0973320188232</v>
       </c>
       <c r="T31" t="n">
-        <v>161.4004047016338</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>154.3501407543557</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1190092.262953765</v>
+        <v>1190092.262953764</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
@@ -26326,31 +26326,31 @@
         <v>37490.76161275875</v>
       </c>
       <c r="G2" t="n">
-        <v>40438.521463723</v>
+        <v>40438.52146372305</v>
       </c>
       <c r="H2" t="n">
-        <v>40438.52146372308</v>
+        <v>40438.5214637231</v>
       </c>
       <c r="I2" t="n">
-        <v>40438.52146372308</v>
+        <v>40438.5214637231</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="K2" t="n">
+        <v>40438.52146372307</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321416</v>
-      </c>
-      <c r="K2" t="n">
-        <v>40438.52146372308</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321415</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,40 +26372,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>312032.9551727874</v>
+        <v>312032.9551727871</v>
       </c>
       <c r="F3" t="n">
-        <v>22537.16280549114</v>
+        <v>22537.16280549116</v>
       </c>
       <c r="G3" t="n">
-        <v>26704.06129538155</v>
+        <v>26704.0612953817</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>193580.5581379058</v>
+        <v>193580.5581379057</v>
       </c>
       <c r="K3" t="n">
-        <v>5379.823860178283</v>
+        <v>5379.8238601783</v>
       </c>
       <c r="L3" t="n">
-        <v>43861.40024069441</v>
+        <v>43861.40024069454</v>
       </c>
       <c r="M3" t="n">
-        <v>79138.30444543033</v>
+        <v>79138.30444543027</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17157.33894531293</v>
+        <v>17157.33894531283</v>
       </c>
       <c r="P3" t="n">
-        <v>5379.823860178249</v>
+        <v>5379.823860178277</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>673.4560505126893</v>
+        <v>673.4560505126891</v>
       </c>
       <c r="F4" t="n">
-        <v>29141.61163904382</v>
+        <v>29141.61163904384</v>
       </c>
       <c r="G4" t="n">
-        <v>62873.70532524063</v>
+        <v>62873.70532524084</v>
       </c>
       <c r="H4" t="n">
-        <v>62873.70532524068</v>
+        <v>62873.70532524076</v>
       </c>
       <c r="I4" t="n">
-        <v>62873.70532524068</v>
+        <v>62873.70532524075</v>
       </c>
       <c r="J4" t="n">
-        <v>69930.72977279185</v>
+        <v>69930.7297727918</v>
       </c>
       <c r="K4" t="n">
         <v>62873.70532524073</v>
       </c>
       <c r="L4" t="n">
-        <v>69930.72977279185</v>
+        <v>69930.72977279182</v>
       </c>
       <c r="M4" t="n">
         <v>69930.72977279182</v>
       </c>
       <c r="N4" t="n">
-        <v>69930.72977279183</v>
+        <v>69930.72977279182</v>
       </c>
       <c r="O4" t="n">
-        <v>69930.72977279185</v>
+        <v>69930.72977279182</v>
       </c>
       <c r="P4" t="n">
-        <v>69930.72977279179</v>
+        <v>69930.72977279182</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74433.43329698773</v>
+        <v>74433.4332969877</v>
       </c>
       <c r="F5" t="n">
-        <v>76801.77922185627</v>
+        <v>76801.77922185625</v>
       </c>
       <c r="G5" t="n">
-        <v>79608.00888315807</v>
+        <v>79608.00888315805</v>
       </c>
       <c r="H5" t="n">
         <v>79608.00888315808</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770834.0079653589</v>
+        <v>-770834.0079653587</v>
       </c>
       <c r="C6" t="n">
         <v>-180866.1287508144</v>
@@ -26528,40 +26528,40 @@
         <v>-180866.1287508144</v>
       </c>
       <c r="E6" t="n">
-        <v>-352137.1309040006</v>
+        <v>-352439.5996478466</v>
       </c>
       <c r="F6" t="n">
-        <v>-90989.79205363247</v>
+        <v>-91167.85839765528</v>
       </c>
       <c r="G6" t="n">
-        <v>-128747.2540400572</v>
+        <v>-128777.9323915321</v>
       </c>
       <c r="H6" t="n">
-        <v>-102043.1927446757</v>
+        <v>-102073.8710961503</v>
       </c>
       <c r="I6" t="n">
-        <v>-102043.1927446757</v>
+        <v>-102073.8710961503</v>
       </c>
       <c r="J6" t="n">
-        <v>-303870.2087103835</v>
+        <v>-303870.2087103833</v>
       </c>
       <c r="K6" t="n">
-        <v>-107423.016604854</v>
+        <v>-107453.6949563286</v>
       </c>
       <c r="L6" t="n">
         <v>-154151.0508131721</v>
       </c>
       <c r="M6" t="n">
-        <v>-189427.955017908</v>
+        <v>-189427.9550179079</v>
       </c>
       <c r="N6" t="n">
-        <v>-110289.6505724777</v>
+        <v>-110289.6505724776</v>
       </c>
       <c r="O6" t="n">
-        <v>-127446.9895177905</v>
+        <v>-127446.9895177904</v>
       </c>
       <c r="P6" t="n">
-        <v>-115669.4744326558</v>
+        <v>-115669.4744326559</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="G2" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="H2" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="I2" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="J2" t="n">
         <v>82.99820380773205</v>
@@ -26713,10 +26713,10 @@
         <v>61.55153012609098</v>
       </c>
       <c r="L2" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="M2" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="N2" t="n">
         <v>82.99820380773201</v>
@@ -26725,7 +26725,7 @@
         <v>82.99820380773204</v>
       </c>
       <c r="P2" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>648.1126183701322</v>
+      </c>
+      <c r="F3" t="n">
+        <v>648.1126183701322</v>
+      </c>
+      <c r="G3" t="n">
+        <v>648.1126183701322</v>
+      </c>
+      <c r="H3" t="n">
         <v>648.1126183701324</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>648.1126183701324</v>
-      </c>
-      <c r="G3" t="n">
-        <v>648.1126183701325</v>
-      </c>
-      <c r="H3" t="n">
-        <v>648.1126183701326</v>
-      </c>
-      <c r="I3" t="n">
-        <v>648.1126183701325</v>
       </c>
       <c r="J3" t="n">
         <v>648.1126183701324</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>991.8516154032701</v>
+      </c>
+      <c r="F4" t="n">
+        <v>991.8516154032701</v>
+      </c>
+      <c r="G4" t="n">
+        <v>991.8516154032701</v>
+      </c>
+      <c r="H4" t="n">
         <v>991.8516154032704</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>991.8516154032704</v>
       </c>
-      <c r="G4" t="n">
-        <v>991.8516154032706</v>
-      </c>
-      <c r="H4" t="n">
-        <v>991.8516154032707</v>
-      </c>
-      <c r="I4" t="n">
-        <v>991.8516154032706</v>
-      </c>
       <c r="J4" t="n">
-        <v>991.8516154032703</v>
+        <v>991.8516154032704</v>
       </c>
       <c r="K4" t="n">
         <v>991.8516154032704</v>
@@ -26823,10 +26823,10 @@
         <v>991.8516154032704</v>
       </c>
       <c r="N4" t="n">
-        <v>991.8516154032703</v>
+        <v>991.8516154032704</v>
       </c>
       <c r="O4" t="n">
-        <v>991.8516154032703</v>
+        <v>991.8516154032704</v>
       </c>
       <c r="P4" t="n">
         <v>991.8516154032704</v>
@@ -26917,37 +26917,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="G2" t="n">
-        <v>33.38007661922694</v>
+        <v>33.38007661922713</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44667368164113</v>
+        <v>21.446673681641</v>
       </c>
       <c r="K2" t="n">
-        <v>6.724779825222853</v>
+        <v>6.724779825222875</v>
       </c>
       <c r="L2" t="n">
-        <v>54.82675030086801</v>
+        <v>54.82675030086817</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21.44667368164116</v>
+        <v>21.44667368164103</v>
       </c>
       <c r="P2" t="n">
-        <v>6.724779825222811</v>
+        <v>6.724779825222846</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.3689541530457</v>
+        <v>270.3689541530455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>317.5643426487148</v>
+        <v>317.5643426487145</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>317.564342648715</v>
+        <v>317.5643426487146</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="L2" t="n">
-        <v>33.38007661922694</v>
+        <v>33.38007661922713</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21.44667368164113</v>
+        <v>21.446673681641</v>
       </c>
       <c r="P2" t="n">
-        <v>6.724779825222853</v>
+        <v>6.724779825222875</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>317.5643426487148</v>
+        <v>317.5643426487145</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>321.4685793061302</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>257.0739478823822</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.98780970275067</v>
+        <v>191.2116351988049</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>274.6606360796667</v>
+        <v>296.7932514503306</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>274.6030296399667</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>113.1504504516219</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>223.3345493039819</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>101.8492884436213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>78.93179823140972</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="C14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="D14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="E14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="F14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="G14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="H14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="I14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="T14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="U14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="V14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="W14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="X14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="C16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="D16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="E16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="F16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="G16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="H16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="I16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="J16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="K16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="L16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="M16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="N16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="O16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="P16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="R16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="S16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="T16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="U16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="V16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="W16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="X16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
       <c r="Y16" t="n">
-        <v>28.17145350686393</v>
+        <v>28.17145350686395</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="C17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="D17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="E17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="F17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="G17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="H17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="I17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="T17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="U17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="V17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="W17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="X17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="C19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="D19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="E19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="F19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="G19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="H19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="I19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="J19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="K19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="L19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="M19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="N19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="O19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="P19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="R19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="S19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="T19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="U19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="V19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="W19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="X19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
       <c r="Y19" t="n">
-        <v>61.55153012609087</v>
+        <v>61.55153012609107</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="C20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="D20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="E20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="F20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="G20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="H20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="I20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="T20" t="n">
-        <v>61.55153012609159</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="U20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012608969</v>
       </c>
       <c r="V20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="W20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="X20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="C22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="D22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="E22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="F22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="G22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="H22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="I22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="J22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="K22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="L22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="M22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="N22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="O22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="P22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="R22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="S22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="T22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="U22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="V22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="W22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="X22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.55153012609088</v>
+        <v>61.55153012609105</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="C23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="D23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012608952</v>
       </c>
       <c r="E23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="F23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="G23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="H23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="I23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="T23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="U23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="V23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="W23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="X23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="C25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="D25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="E25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="F25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="G25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="H25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="I25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="J25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="K25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="L25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="M25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="N25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="O25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="P25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="R25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="S25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="T25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="U25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="V25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="W25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="X25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.55153012609092</v>
+        <v>61.55153012609105</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.99820380773205</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>82.99820380773205</v>
@@ -29290,11 +29290,11 @@
         <v>82.99820380773205</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>82.99820380773205</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
@@ -29323,16 +29323,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.99820380773205</v>
       </c>
       <c r="T26" t="n">
+        <v>10.29271000631192</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>82.99820380773205</v>
-      </c>
-      <c r="U26" t="n">
-        <v>10.29271000631272</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>82.99820380773205</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.99820380773205</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="D32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="E32" t="n">
-        <v>82.99820380773205</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.29271000631269</v>
+        <v>10.2927100063128</v>
       </c>
       <c r="G32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="H32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.99820380773205</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="V32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="X32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="C34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="D34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="E34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="F34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="G34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="H34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="I34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="J34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="K34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="L34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="M34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="N34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="O34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="P34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="R34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="S34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="T34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="U34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="V34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="W34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="X34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.99820380773205</v>
+        <v>82.99820380773203</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="C35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="G35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="H35" t="n">
-        <v>82.99820380773201</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>82.99820380773201</v>
+        <v>10.29271000631246</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="T35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="U35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="V35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="W35" t="n">
-        <v>82.99820380773201</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="Y35" t="n">
-        <v>10.29271000631252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="C37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="D37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="E37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="F37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="G37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="H37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="I37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="J37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="K37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="L37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="M37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="O37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="P37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="R37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="S37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="T37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="U37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="V37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="W37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="X37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.99820380773201</v>
+        <v>82.99820380773204</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>82.99820380773201</v>
       </c>
       <c r="D38" t="n">
-        <v>82.99820380773201</v>
+        <v>10.29271000631257</v>
       </c>
       <c r="E38" t="n">
         <v>82.99820380773201</v>
@@ -30235,13 +30235,13 @@
         <v>82.99820380773201</v>
       </c>
       <c r="G38" t="n">
-        <v>82.99820380773201</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>82.99820380773201</v>
       </c>
       <c r="I38" t="n">
-        <v>82.99820380773201</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30280,16 +30280,16 @@
         <v>82.99820380773201</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.29271000631297</v>
+        <v>82.99820380773201</v>
       </c>
     </row>
     <row r="39">
@@ -30469,7 +30469,7 @@
         <v>82.99820380773204</v>
       </c>
       <c r="F41" t="n">
-        <v>82.99820380773204</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>82.99820380773204</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.99820380773204</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>82.99820380773204</v>
@@ -30517,16 +30517,16 @@
         <v>82.99820380773204</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>82.99820380773204</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>10.29271000631235</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.29271000631297</v>
+        <v>82.99820380773204</v>
       </c>
     </row>
     <row r="42">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.998203807732</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="D44" t="n">
-        <v>82.998203807732</v>
+        <v>10.29271000631257</v>
       </c>
       <c r="E44" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="F44" t="n">
-        <v>82.998203807732</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="H44" t="n">
-        <v>82.998203807732</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="T44" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="U44" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="Y44" t="n">
-        <v>10.29271000631252</v>
+        <v>82.99820380773201</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="C46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="D46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="E46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="F46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="G46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="H46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="I46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="J46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="K46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="L46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="M46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="N46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="O46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="P46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="R46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="S46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="T46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="U46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="V46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="W46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="X46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.998203807732</v>
+        <v>82.99820380773201</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,25 +31355,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31616,7 +31616,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.6054778627945</v>
+        <v>2.605477862794499</v>
       </c>
       <c r="H11" t="n">
-        <v>26.68335016234418</v>
+        <v>26.68335016234417</v>
       </c>
       <c r="I11" t="n">
-        <v>100.4476853053851</v>
+        <v>100.447685305385</v>
       </c>
       <c r="J11" t="n">
-        <v>221.1366767573549</v>
+        <v>221.1366767573548</v>
       </c>
       <c r="K11" t="n">
-        <v>331.4265546894462</v>
+        <v>331.426554689446</v>
       </c>
       <c r="L11" t="n">
-        <v>411.1639478329434</v>
+        <v>411.1639478329433</v>
       </c>
       <c r="M11" t="n">
-        <v>457.4991147754151</v>
+        <v>457.499114775415</v>
       </c>
       <c r="N11" t="n">
-        <v>464.90192875308</v>
+        <v>464.9019287530799</v>
       </c>
       <c r="O11" t="n">
-        <v>438.9937082549172</v>
+        <v>438.993708254917</v>
       </c>
       <c r="P11" t="n">
-        <v>374.6709735171779</v>
+        <v>374.6709735171777</v>
       </c>
       <c r="Q11" t="n">
-        <v>281.3622975558498</v>
+        <v>281.3622975558497</v>
       </c>
       <c r="R11" t="n">
-        <v>163.6663487987652</v>
+        <v>163.6663487987651</v>
       </c>
       <c r="S11" t="n">
-        <v>59.37232679842973</v>
+        <v>59.37232679842971</v>
       </c>
       <c r="T11" t="n">
         <v>11.40547934438293</v>
       </c>
       <c r="U11" t="n">
-        <v>0.20843822902356</v>
+        <v>0.2084382290235599</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.394053556494247</v>
       </c>
       <c r="H12" t="n">
-        <v>13.46362250614181</v>
+        <v>13.4636225061418</v>
       </c>
       <c r="I12" t="n">
-        <v>47.99701937929755</v>
+        <v>47.99701937929753</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>131.7074897387832</v>
       </c>
       <c r="K12" t="n">
-        <v>225.1090780238978</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>302.6869355888057</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>149.7340449427097</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>294.6570213342731</v>
+        <v>331.6808038558921</v>
       </c>
       <c r="P12" t="n">
-        <v>266.203086590555</v>
+        <v>266.2030865905549</v>
       </c>
       <c r="Q12" t="n">
         <v>177.9497136324937</v>
       </c>
       <c r="R12" t="n">
-        <v>86.55360590233583</v>
+        <v>86.5536059023358</v>
       </c>
       <c r="S12" t="n">
-        <v>25.89393338488216</v>
+        <v>25.89393338488215</v>
       </c>
       <c r="T12" t="n">
-        <v>5.619014115869353</v>
+        <v>5.619014115869351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0917140497693584</v>
+        <v>0.09171404976935836</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.168727672470731</v>
+        <v>1.16872767247073</v>
       </c>
       <c r="H13" t="n">
-        <v>10.39105148796705</v>
+        <v>10.39105148796704</v>
       </c>
       <c r="I13" t="n">
-        <v>35.14682855030161</v>
+        <v>35.1468285503016</v>
       </c>
       <c r="J13" t="n">
-        <v>82.62904644368064</v>
+        <v>82.62904644368061</v>
       </c>
       <c r="K13" t="n">
         <v>135.7849059470539</v>
       </c>
       <c r="L13" t="n">
-        <v>173.7579305053303</v>
+        <v>173.7579305053302</v>
       </c>
       <c r="M13" t="n">
-        <v>183.2033750582982</v>
+        <v>183.2033750582981</v>
       </c>
       <c r="N13" t="n">
-        <v>178.8472082790893</v>
+        <v>178.8472082790892</v>
       </c>
       <c r="O13" t="n">
-        <v>165.1943441052266</v>
+        <v>165.1943441052265</v>
       </c>
       <c r="P13" t="n">
-        <v>141.3522995868236</v>
+        <v>141.3522995868235</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.86500537388999</v>
+        <v>97.86500537388996</v>
       </c>
       <c r="R13" t="n">
-        <v>52.55024607309301</v>
+        <v>52.55024607309299</v>
       </c>
       <c r="S13" t="n">
-        <v>20.36773589205809</v>
+        <v>20.36773589205808</v>
       </c>
       <c r="T13" t="n">
-        <v>4.993654600556756</v>
+        <v>4.993654600556754</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06374878213476719</v>
+        <v>0.06374878213476716</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6054778627945</v>
+        <v>2.605477862794499</v>
       </c>
       <c r="H14" t="n">
-        <v>26.68335016234418</v>
+        <v>26.68335016234417</v>
       </c>
       <c r="I14" t="n">
-        <v>100.4476853053851</v>
+        <v>100.447685305385</v>
       </c>
       <c r="J14" t="n">
-        <v>221.1366767573549</v>
+        <v>221.1366767573548</v>
       </c>
       <c r="K14" t="n">
-        <v>331.4265546894462</v>
+        <v>331.426554689446</v>
       </c>
       <c r="L14" t="n">
-        <v>411.1639478329434</v>
+        <v>411.1639478329433</v>
       </c>
       <c r="M14" t="n">
-        <v>457.4991147754151</v>
+        <v>457.499114775415</v>
       </c>
       <c r="N14" t="n">
-        <v>464.90192875308</v>
+        <v>464.9019287530799</v>
       </c>
       <c r="O14" t="n">
-        <v>438.9937082549172</v>
+        <v>438.993708254917</v>
       </c>
       <c r="P14" t="n">
-        <v>374.6709735171779</v>
+        <v>374.6709735171777</v>
       </c>
       <c r="Q14" t="n">
-        <v>281.3622975558498</v>
+        <v>281.3622975558497</v>
       </c>
       <c r="R14" t="n">
-        <v>163.6663487987652</v>
+        <v>163.6663487987651</v>
       </c>
       <c r="S14" t="n">
-        <v>59.37232679842973</v>
+        <v>59.37232679842971</v>
       </c>
       <c r="T14" t="n">
         <v>11.40547934438293</v>
       </c>
       <c r="U14" t="n">
-        <v>0.20843822902356</v>
+        <v>0.2084382290235599</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>1.394053556494247</v>
       </c>
       <c r="H15" t="n">
-        <v>13.46362250614181</v>
+        <v>13.4636225061418</v>
       </c>
       <c r="I15" t="n">
-        <v>47.99701937929755</v>
+        <v>47.99701937929753</v>
       </c>
       <c r="J15" t="n">
-        <v>131.7074897387832</v>
+        <v>25.44316469527529</v>
       </c>
       <c r="K15" t="n">
-        <v>225.1090780238978</v>
+        <v>225.1090780238977</v>
       </c>
       <c r="L15" t="n">
-        <v>302.6869355888057</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>362.570095818212</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>219.8219217764533</v>
+        <v>266.2030865905549</v>
       </c>
       <c r="Q15" t="n">
         <v>177.9497136324937</v>
       </c>
       <c r="R15" t="n">
-        <v>86.55360590233583</v>
+        <v>86.5536059023358</v>
       </c>
       <c r="S15" t="n">
-        <v>25.89393338488216</v>
+        <v>25.89393338488215</v>
       </c>
       <c r="T15" t="n">
-        <v>5.619014115869353</v>
+        <v>5.619014115869351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0917140497693584</v>
+        <v>0.09171404976935836</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.168727672470731</v>
+        <v>1.16872767247073</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39105148796705</v>
+        <v>10.39105148796704</v>
       </c>
       <c r="I16" t="n">
-        <v>35.14682855030161</v>
+        <v>35.1468285503016</v>
       </c>
       <c r="J16" t="n">
-        <v>82.62904644368064</v>
+        <v>82.62904644368061</v>
       </c>
       <c r="K16" t="n">
         <v>135.7849059470539</v>
       </c>
       <c r="L16" t="n">
-        <v>173.7579305053303</v>
+        <v>173.7579305053302</v>
       </c>
       <c r="M16" t="n">
-        <v>183.2033750582982</v>
+        <v>183.2033750582981</v>
       </c>
       <c r="N16" t="n">
-        <v>178.8472082790893</v>
+        <v>178.8472082790892</v>
       </c>
       <c r="O16" t="n">
-        <v>165.1943441052266</v>
+        <v>165.1943441052265</v>
       </c>
       <c r="P16" t="n">
-        <v>141.3522995868236</v>
+        <v>141.3522995868235</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.86500537388999</v>
+        <v>97.86500537388996</v>
       </c>
       <c r="R16" t="n">
-        <v>52.55024607309301</v>
+        <v>52.55024607309299</v>
       </c>
       <c r="S16" t="n">
-        <v>20.36773589205809</v>
+        <v>20.36773589205808</v>
       </c>
       <c r="T16" t="n">
-        <v>4.993654600556756</v>
+        <v>4.993654600556754</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06374878213476719</v>
+        <v>0.06374878213476716</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.605477862794501</v>
+        <v>2.605477862794499</v>
       </c>
       <c r="H17" t="n">
-        <v>26.68335016234419</v>
+        <v>26.68335016234417</v>
       </c>
       <c r="I17" t="n">
-        <v>100.4476853053851</v>
+        <v>100.447685305385</v>
       </c>
       <c r="J17" t="n">
-        <v>221.1366767573549</v>
+        <v>221.1366767573548</v>
       </c>
       <c r="K17" t="n">
-        <v>331.4265546894462</v>
+        <v>331.426554689446</v>
       </c>
       <c r="L17" t="n">
-        <v>411.1639478329435</v>
+        <v>411.1639478329433</v>
       </c>
       <c r="M17" t="n">
-        <v>457.4991147754152</v>
+        <v>457.499114775415</v>
       </c>
       <c r="N17" t="n">
-        <v>464.9019287530801</v>
+        <v>464.9019287530799</v>
       </c>
       <c r="O17" t="n">
-        <v>438.9937082549172</v>
+        <v>438.993708254917</v>
       </c>
       <c r="P17" t="n">
-        <v>374.670973517178</v>
+        <v>374.6709735171777</v>
       </c>
       <c r="Q17" t="n">
-        <v>281.3622975558498</v>
+        <v>281.3622975558497</v>
       </c>
       <c r="R17" t="n">
-        <v>163.6663487987652</v>
+        <v>163.6663487987651</v>
       </c>
       <c r="S17" t="n">
-        <v>59.37232679842974</v>
+        <v>59.37232679842971</v>
       </c>
       <c r="T17" t="n">
         <v>11.40547934438293</v>
       </c>
       <c r="U17" t="n">
-        <v>0.20843822902356</v>
+        <v>0.2084382290235599</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>1.394053556494247</v>
       </c>
       <c r="H18" t="n">
-        <v>13.46362250614181</v>
+        <v>13.4636225061418</v>
       </c>
       <c r="I18" t="n">
-        <v>47.99701937929756</v>
+        <v>47.99701937929753</v>
       </c>
       <c r="J18" t="n">
-        <v>131.7074897387833</v>
+        <v>60.33730349752393</v>
       </c>
       <c r="K18" t="n">
-        <v>225.1090780238978</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>302.6869355888058</v>
+        <v>302.6869355888056</v>
       </c>
       <c r="M18" t="n">
-        <v>131.5685488183916</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>362.570095818212</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>331.6808038558921</v>
       </c>
       <c r="P18" t="n">
-        <v>266.203086590555</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.55360590233585</v>
+        <v>86.5536059023358</v>
       </c>
       <c r="S18" t="n">
-        <v>25.89393338488216</v>
+        <v>25.89393338488215</v>
       </c>
       <c r="T18" t="n">
-        <v>5.619014115869354</v>
+        <v>5.619014115869351</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09171404976935842</v>
+        <v>0.09171404976935836</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.168727672470731</v>
+        <v>1.16872767247073</v>
       </c>
       <c r="H19" t="n">
-        <v>10.39105148796705</v>
+        <v>10.39105148796704</v>
       </c>
       <c r="I19" t="n">
-        <v>35.14682855030162</v>
+        <v>35.1468285503016</v>
       </c>
       <c r="J19" t="n">
-        <v>82.62904644368065</v>
+        <v>82.62904644368061</v>
       </c>
       <c r="K19" t="n">
         <v>135.7849059470539</v>
       </c>
       <c r="L19" t="n">
-        <v>173.7579305053303</v>
+        <v>173.7579305053302</v>
       </c>
       <c r="M19" t="n">
-        <v>183.2033750582982</v>
+        <v>183.2033750582981</v>
       </c>
       <c r="N19" t="n">
-        <v>178.8472082790893</v>
+        <v>178.8472082790892</v>
       </c>
       <c r="O19" t="n">
-        <v>165.1943441052266</v>
+        <v>165.1943441052265</v>
       </c>
       <c r="P19" t="n">
-        <v>141.3522995868236</v>
+        <v>141.3522995868235</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.86500537389</v>
+        <v>97.86500537388996</v>
       </c>
       <c r="R19" t="n">
-        <v>52.55024607309302</v>
+        <v>52.55024607309299</v>
       </c>
       <c r="S19" t="n">
-        <v>20.36773589205809</v>
+        <v>20.36773589205808</v>
       </c>
       <c r="T19" t="n">
-        <v>4.993654600556757</v>
+        <v>4.993654600556754</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0637487821347672</v>
+        <v>0.06374878213476716</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.605477862794501</v>
+        <v>2.6054778627945</v>
       </c>
       <c r="H20" t="n">
-        <v>26.68335016234419</v>
+        <v>26.68335016234418</v>
       </c>
       <c r="I20" t="n">
         <v>100.4476853053851</v>
       </c>
       <c r="J20" t="n">
-        <v>221.136676757355</v>
+        <v>221.1366767573549</v>
       </c>
       <c r="K20" t="n">
-        <v>331.4265546894463</v>
+        <v>331.4265546894462</v>
       </c>
       <c r="L20" t="n">
-        <v>411.1639478329436</v>
+        <v>411.1639478329434</v>
       </c>
       <c r="M20" t="n">
-        <v>457.4991147754153</v>
+        <v>457.4991147754151</v>
       </c>
       <c r="N20" t="n">
-        <v>464.9019287530802</v>
+        <v>464.90192875308</v>
       </c>
       <c r="O20" t="n">
-        <v>438.9937082549174</v>
+        <v>438.9937082549172</v>
       </c>
       <c r="P20" t="n">
-        <v>374.670973517178</v>
+        <v>374.6709735171779</v>
       </c>
       <c r="Q20" t="n">
-        <v>281.3622975558499</v>
+        <v>281.3622975558498</v>
       </c>
       <c r="R20" t="n">
         <v>163.6663487987652</v>
       </c>
       <c r="S20" t="n">
-        <v>59.37232679842975</v>
+        <v>59.37232679842973</v>
       </c>
       <c r="T20" t="n">
         <v>11.40547934438293</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.394053556494248</v>
+        <v>1.394053556494247</v>
       </c>
       <c r="H21" t="n">
         <v>13.46362250614181</v>
       </c>
       <c r="I21" t="n">
-        <v>47.99701937929756</v>
+        <v>47.99701937929755</v>
       </c>
       <c r="J21" t="n">
-        <v>131.7074897387833</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>225.1090780238979</v>
+        <v>225.1090780238978</v>
       </c>
       <c r="L21" t="n">
-        <v>302.6869355888059</v>
+        <v>302.6869355888057</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>362.5700958182122</v>
+        <v>362.5700958182121</v>
       </c>
       <c r="O21" t="n">
-        <v>289.785414466169</v>
+        <v>166.1624380032601</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,16 +32573,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.55360590233586</v>
+        <v>86.55360590233583</v>
       </c>
       <c r="S21" t="n">
-        <v>25.89393338488217</v>
+        <v>25.89393338488216</v>
       </c>
       <c r="T21" t="n">
-        <v>5.619014115869355</v>
+        <v>5.619014115869353</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09171404976935843</v>
+        <v>0.0917140497693584</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,19 +32625,19 @@
         <v>10.39105148796705</v>
       </c>
       <c r="I22" t="n">
-        <v>35.14682855030163</v>
+        <v>35.14682855030161</v>
       </c>
       <c r="J22" t="n">
-        <v>82.62904644368066</v>
+        <v>82.62904644368064</v>
       </c>
       <c r="K22" t="n">
-        <v>135.784905947054</v>
+        <v>135.7849059470539</v>
       </c>
       <c r="L22" t="n">
         <v>173.7579305053303</v>
       </c>
       <c r="M22" t="n">
-        <v>183.2033750582983</v>
+        <v>183.2033750582982</v>
       </c>
       <c r="N22" t="n">
         <v>178.8472082790893</v>
@@ -32649,19 +32649,19 @@
         <v>141.3522995868236</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.86500537389003</v>
+        <v>97.86500537388999</v>
       </c>
       <c r="R22" t="n">
-        <v>52.55024607309303</v>
+        <v>52.55024607309301</v>
       </c>
       <c r="S22" t="n">
         <v>20.36773589205809</v>
       </c>
       <c r="T22" t="n">
-        <v>4.993654600556757</v>
+        <v>4.993654600556756</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06374878213476722</v>
+        <v>0.06374878213476719</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.605477862794501</v>
+        <v>2.6054778627945</v>
       </c>
       <c r="H23" t="n">
-        <v>26.68335016234419</v>
+        <v>26.68335016234418</v>
       </c>
       <c r="I23" t="n">
         <v>100.4476853053851</v>
@@ -32713,19 +32713,19 @@
         <v>331.4265546894462</v>
       </c>
       <c r="L23" t="n">
-        <v>411.1639478329435</v>
+        <v>411.1639478329434</v>
       </c>
       <c r="M23" t="n">
-        <v>457.4991147754152</v>
+        <v>457.4991147754151</v>
       </c>
       <c r="N23" t="n">
-        <v>464.9019287530801</v>
+        <v>464.90192875308</v>
       </c>
       <c r="O23" t="n">
         <v>438.9937082549172</v>
       </c>
       <c r="P23" t="n">
-        <v>374.670973517178</v>
+        <v>374.6709735171779</v>
       </c>
       <c r="Q23" t="n">
         <v>281.3622975558498</v>
@@ -32734,7 +32734,7 @@
         <v>163.6663487987652</v>
       </c>
       <c r="S23" t="n">
-        <v>59.37232679842974</v>
+        <v>59.37232679842973</v>
       </c>
       <c r="T23" t="n">
         <v>11.40547934438293</v>
@@ -32783,43 +32783,43 @@
         <v>13.46362250614181</v>
       </c>
       <c r="I24" t="n">
-        <v>47.99701937929756</v>
+        <v>47.99701937929755</v>
       </c>
       <c r="J24" t="n">
-        <v>131.7074897387833</v>
+        <v>131.7074897387832</v>
       </c>
       <c r="K24" t="n">
         <v>225.1090780238978</v>
       </c>
       <c r="L24" t="n">
-        <v>302.6869355888058</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>353.2213770117221</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>362.5700958182121</v>
       </c>
       <c r="O24" t="n">
-        <v>201.6640624682194</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>266.203086590555</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.55360590233585</v>
+        <v>86.55360590233583</v>
       </c>
       <c r="S24" t="n">
         <v>25.89393338488216</v>
       </c>
       <c r="T24" t="n">
-        <v>5.619014115869354</v>
+        <v>5.619014115869353</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09171404976935842</v>
+        <v>0.0917140497693584</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>10.39105148796705</v>
       </c>
       <c r="I25" t="n">
-        <v>35.14682855030162</v>
+        <v>35.14682855030161</v>
       </c>
       <c r="J25" t="n">
-        <v>82.62904644368065</v>
+        <v>82.62904644368064</v>
       </c>
       <c r="K25" t="n">
         <v>135.7849059470539</v>
@@ -32886,19 +32886,19 @@
         <v>141.3522995868236</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.86500537389</v>
+        <v>97.86500537388999</v>
       </c>
       <c r="R25" t="n">
-        <v>52.55024607309302</v>
+        <v>52.55024607309301</v>
       </c>
       <c r="S25" t="n">
         <v>20.36773589205809</v>
       </c>
       <c r="T25" t="n">
-        <v>4.993654600556757</v>
+        <v>4.993654600556756</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0637487821347672</v>
+        <v>0.06374878213476719</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,22 +33026,22 @@
         <v>131.7074897387832</v>
       </c>
       <c r="K27" t="n">
-        <v>225.1090780238978</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>302.6869355888057</v>
       </c>
       <c r="M27" t="n">
-        <v>353.2213770117221</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>44.55025839722487</v>
+        <v>362.5700958182121</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>266.203086590555</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>47.99701937929755</v>
       </c>
       <c r="J30" t="n">
-        <v>131.7074897387832</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>225.1090780238978</v>
@@ -33269,7 +33269,7 @@
         <v>302.6869355888057</v>
       </c>
       <c r="M30" t="n">
-        <v>219.8219217764529</v>
+        <v>84.57973359842345</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>266.203086590555</v>
       </c>
       <c r="Q30" t="n">
         <v>177.9497136324937</v>
@@ -33500,16 +33500,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>225.1090780238978</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>302.6869355888057</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>213.321802394664</v>
       </c>
       <c r="N33" t="n">
-        <v>350.7828201889783</v>
+        <v>362.5700958182121</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33734,22 +33734,22 @@
         <v>47.99701937929755</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>131.7074897387832</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>118.8447529803895</v>
       </c>
       <c r="L36" t="n">
-        <v>302.6869355888057</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>362.5700958182121</v>
       </c>
       <c r="O36" t="n">
-        <v>309.6888116223213</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>266.203086590555</v>
@@ -33907,7 +33907,7 @@
         <v>464.90192875308</v>
       </c>
       <c r="O38" t="n">
-        <v>438.9937082549172</v>
+        <v>438.9937082549175</v>
       </c>
       <c r="P38" t="n">
         <v>374.6709735171779</v>
@@ -33971,25 +33971,25 @@
         <v>47.99701937929755</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>131.7074897387832</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>225.1090780238978</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>277.0346110988274</v>
+        <v>353.2213770117221</v>
       </c>
       <c r="N39" t="n">
-        <v>362.5700958182121</v>
+        <v>69.89264202122934</v>
       </c>
       <c r="O39" t="n">
         <v>331.6808038558922</v>
       </c>
       <c r="P39" t="n">
-        <v>266.203086590555</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>177.9497136324937</v>
@@ -34132,10 +34132,10 @@
         <v>221.1366767573549</v>
       </c>
       <c r="K41" t="n">
-        <v>331.4265546894459</v>
+        <v>331.4265546894462</v>
       </c>
       <c r="L41" t="n">
-        <v>411.1639478329434</v>
+        <v>411.1639478329441</v>
       </c>
       <c r="M41" t="n">
         <v>457.4991147754151</v>
@@ -34211,25 +34211,25 @@
         <v>131.7074897387832</v>
       </c>
       <c r="K42" t="n">
-        <v>225.1090780238978</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>302.6869355888057</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>353.2213770117221</v>
+        <v>149.7340449427095</v>
       </c>
       <c r="N42" t="n">
-        <v>299.1341332726595</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>331.6808038558922</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>266.203086590555</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>177.9497136324937</v>
       </c>
       <c r="R42" t="n">
         <v>86.55360590233583</v>
@@ -34448,25 +34448,25 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>225.1090780238978</v>
       </c>
       <c r="L45" t="n">
-        <v>302.6869355888057</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>309.6888116223213</v>
+        <v>353.2213770117221</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>362.5700958182121</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>331.6808038558922</v>
       </c>
       <c r="P45" t="n">
-        <v>266.203086590555</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.9497136324937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>86.55360590233583</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>209.1873874027424</v>
+        <v>209.1873874027423</v>
       </c>
       <c r="K11" t="n">
-        <v>435.4821162156304</v>
+        <v>435.4821162156302</v>
       </c>
       <c r="L11" t="n">
-        <v>593.0587474134066</v>
+        <v>593.0587474134065</v>
       </c>
       <c r="M11" t="n">
-        <v>676.6664150409748</v>
+        <v>676.6664150409747</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8357895684733</v>
+        <v>672.835789568473</v>
       </c>
       <c r="O11" t="n">
-        <v>589.6956780959758</v>
+        <v>589.6956780959756</v>
       </c>
       <c r="P11" t="n">
-        <v>465.236685933391</v>
+        <v>465.2366859333908</v>
       </c>
       <c r="Q11" t="n">
         <v>271.3715983413049</v>
       </c>
       <c r="R11" t="n">
-        <v>13.79723085761549</v>
+        <v>13.79723085761543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>130.9608984125254</v>
       </c>
       <c r="K12" t="n">
-        <v>351.7328760621174</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>534.9729011123907</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>473.3050747706912</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>545.9230961665581</v>
+        <v>582.9468786881771</v>
       </c>
       <c r="P12" t="n">
-        <v>450.6914478161619</v>
+        <v>450.6914478161618</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.96793954647222</v>
+        <v>248.0452272823212</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>113.5154141211711</v>
+        <v>113.515414121171</v>
       </c>
       <c r="L13" t="n">
-        <v>201.3479557656464</v>
+        <v>201.3479557656463</v>
       </c>
       <c r="M13" t="n">
-        <v>222.7872520201388</v>
+        <v>222.7872520201387</v>
       </c>
       <c r="N13" t="n">
-        <v>222.9793806583179</v>
+        <v>222.9793806583178</v>
       </c>
       <c r="O13" t="n">
-        <v>189.7794720192663</v>
+        <v>189.7794720192662</v>
       </c>
       <c r="P13" t="n">
-        <v>138.6308588517171</v>
+        <v>138.630858851717</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.7029621221956</v>
+        <v>11.70296212219557</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>209.1873874027424</v>
+        <v>209.1873874027423</v>
       </c>
       <c r="K14" t="n">
-        <v>435.4821162156304</v>
+        <v>435.4821162156302</v>
       </c>
       <c r="L14" t="n">
-        <v>593.0587474134066</v>
+        <v>593.0587474134065</v>
       </c>
       <c r="M14" t="n">
-        <v>676.6664150409748</v>
+        <v>676.6664150409747</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8357895684733</v>
+        <v>672.835789568473</v>
       </c>
       <c r="O14" t="n">
-        <v>589.6956780959758</v>
+        <v>589.6956780959756</v>
       </c>
       <c r="P14" t="n">
-        <v>465.236685933391</v>
+        <v>465.2366859333908</v>
       </c>
       <c r="Q14" t="n">
         <v>271.3715983413049</v>
       </c>
       <c r="R14" t="n">
-        <v>13.79723085761549</v>
+        <v>13.79723085761543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>130.9608984125254</v>
+        <v>24.69657336901743</v>
       </c>
       <c r="K15" t="n">
-        <v>351.7328760621174</v>
+        <v>351.7328760621173</v>
       </c>
       <c r="L15" t="n">
-        <v>534.9729011123907</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>710.5707580784322</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>404.3102830020602</v>
+        <v>450.6914478161618</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.0452272823213</v>
+        <v>248.0452272823212</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.44131983387179</v>
+        <v>17.44131983387177</v>
       </c>
       <c r="K16" t="n">
         <v>141.686867628035</v>
@@ -35814,16 +35814,16 @@
         <v>250.9587055270027</v>
       </c>
       <c r="N16" t="n">
-        <v>251.1508341651818</v>
+        <v>251.1508341651817</v>
       </c>
       <c r="O16" t="n">
-        <v>217.9509255261302</v>
+        <v>217.9509255261301</v>
       </c>
       <c r="P16" t="n">
-        <v>166.802312358581</v>
+        <v>166.8023123585809</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.87441562905953</v>
+        <v>39.87441562905952</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>209.1873874027424</v>
+        <v>209.1873874027423</v>
       </c>
       <c r="K17" t="n">
-        <v>435.4821162156304</v>
+        <v>435.4821162156302</v>
       </c>
       <c r="L17" t="n">
-        <v>593.0587474134068</v>
+        <v>593.0587474134065</v>
       </c>
       <c r="M17" t="n">
-        <v>676.6664150409749</v>
+        <v>676.6664150409747</v>
       </c>
       <c r="N17" t="n">
-        <v>672.8357895684733</v>
+        <v>672.835789568473</v>
       </c>
       <c r="O17" t="n">
-        <v>589.6956780959758</v>
+        <v>589.6956780959756</v>
       </c>
       <c r="P17" t="n">
-        <v>465.2366859333911</v>
+        <v>465.2366859333908</v>
       </c>
       <c r="Q17" t="n">
-        <v>271.371598341305</v>
+        <v>271.3715983413049</v>
       </c>
       <c r="R17" t="n">
-        <v>13.79723085761552</v>
+        <v>13.79723085761543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>130.9608984125254</v>
+        <v>59.59071217126607</v>
       </c>
       <c r="K18" t="n">
-        <v>351.7328760621174</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>534.9729011123908</v>
+        <v>534.9729011123907</v>
       </c>
       <c r="M18" t="n">
-        <v>455.1395786463732</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>710.5707580784322</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>582.9468786881771</v>
       </c>
       <c r="P18" t="n">
-        <v>450.6914478161619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>50.82139645309874</v>
+        <v>50.82139645309891</v>
       </c>
       <c r="K19" t="n">
-        <v>175.066944247262</v>
+        <v>175.0669442472621</v>
       </c>
       <c r="L19" t="n">
-        <v>262.8994858917373</v>
+        <v>262.8994858917374</v>
       </c>
       <c r="M19" t="n">
-        <v>284.3387821462297</v>
+        <v>284.3387821462298</v>
       </c>
       <c r="N19" t="n">
         <v>284.5309107844088</v>
       </c>
       <c r="O19" t="n">
-        <v>251.3310021453572</v>
+        <v>251.3310021453573</v>
       </c>
       <c r="P19" t="n">
-        <v>200.1823889778079</v>
+        <v>200.1823889778081</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.25449224828648</v>
+        <v>73.25449224828665</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>209.1873874027425</v>
+        <v>209.1873874027424</v>
       </c>
       <c r="K20" t="n">
-        <v>435.4821162156305</v>
+        <v>435.4821162156304</v>
       </c>
       <c r="L20" t="n">
-        <v>593.0587474134068</v>
+        <v>593.0587474134066</v>
       </c>
       <c r="M20" t="n">
-        <v>676.666415040975</v>
+        <v>676.6664150409748</v>
       </c>
       <c r="N20" t="n">
-        <v>672.8357895684735</v>
+        <v>672.8357895684733</v>
       </c>
       <c r="O20" t="n">
-        <v>589.6956780959759</v>
+        <v>589.6956780959758</v>
       </c>
       <c r="P20" t="n">
-        <v>465.2366859333911</v>
+        <v>465.236685933391</v>
       </c>
       <c r="Q20" t="n">
-        <v>271.3715983413051</v>
+        <v>271.3715983413049</v>
       </c>
       <c r="R20" t="n">
-        <v>13.79723085761555</v>
+        <v>13.79723085761549</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.9608984125254</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>351.7328760621175</v>
+        <v>351.7328760621174</v>
       </c>
       <c r="L21" t="n">
-        <v>534.9729011123909</v>
+        <v>534.9729011123907</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
@@ -36212,13 +36212,13 @@
         <v>710.5707580784324</v>
       </c>
       <c r="O21" t="n">
-        <v>541.051489298454</v>
+        <v>417.4285128355452</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>50.82139645309877</v>
+        <v>50.82139645309891</v>
       </c>
       <c r="K22" t="n">
-        <v>175.066944247262</v>
+        <v>175.0669442472621</v>
       </c>
       <c r="L22" t="n">
-        <v>262.8994858917373</v>
+        <v>262.8994858917374</v>
       </c>
       <c r="M22" t="n">
-        <v>284.3387821462297</v>
+        <v>284.3387821462298</v>
       </c>
       <c r="N22" t="n">
-        <v>284.5309107844088</v>
+        <v>284.5309107844089</v>
       </c>
       <c r="O22" t="n">
-        <v>251.3310021453572</v>
+        <v>251.3310021453573</v>
       </c>
       <c r="P22" t="n">
-        <v>200.182388977808</v>
+        <v>200.1823889778081</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.25449224828652</v>
+        <v>73.25449224828665</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>435.4821162156304</v>
       </c>
       <c r="L23" t="n">
-        <v>593.0587474134068</v>
+        <v>593.0587474134066</v>
       </c>
       <c r="M23" t="n">
-        <v>676.6664150409749</v>
+        <v>676.6664150409748</v>
       </c>
       <c r="N23" t="n">
         <v>672.8357895684733</v>
@@ -36373,13 +36373,13 @@
         <v>589.6956780959758</v>
       </c>
       <c r="P23" t="n">
-        <v>465.2366859333911</v>
+        <v>465.236685933391</v>
       </c>
       <c r="Q23" t="n">
-        <v>271.371598341305</v>
+        <v>271.3715983413049</v>
       </c>
       <c r="R23" t="n">
-        <v>13.79723085761552</v>
+        <v>13.79723085761549</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>351.7328760621174</v>
       </c>
       <c r="L24" t="n">
-        <v>534.9729011123908</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>676.7924068397037</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>710.5707580784324</v>
       </c>
       <c r="O24" t="n">
-        <v>452.9301373005045</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>450.6914478161619</v>
+        <v>169.1554593934253</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>50.8213964530988</v>
+        <v>50.82139645309891</v>
       </c>
       <c r="K25" t="n">
-        <v>175.066944247262</v>
+        <v>175.0669442472621</v>
       </c>
       <c r="L25" t="n">
         <v>262.8994858917374</v>
       </c>
       <c r="M25" t="n">
-        <v>284.3387821462297</v>
+        <v>284.3387821462298</v>
       </c>
       <c r="N25" t="n">
-        <v>284.5309107844088</v>
+        <v>284.5309107844089</v>
       </c>
       <c r="O25" t="n">
-        <v>251.3310021453572</v>
+        <v>251.3310021453573</v>
       </c>
       <c r="P25" t="n">
-        <v>200.182388977808</v>
+        <v>200.1823889778081</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.25449224828654</v>
+        <v>73.25449224828665</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>130.9608984125254</v>
       </c>
       <c r="K27" t="n">
-        <v>351.7328760621174</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>534.9729011123907</v>
       </c>
       <c r="M27" t="n">
-        <v>676.7924068397037</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>392.5509206574451</v>
+        <v>710.5707580784324</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>245.3736058563629</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>450.6914478161619</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>130.9608984125254</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>351.7328760621174</v>
@@ -36917,7 +36917,7 @@
         <v>534.9729011123907</v>
       </c>
       <c r="M30" t="n">
-        <v>543.3929516044345</v>
+        <v>408.150763426405</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
@@ -36926,7 +36926,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>450.6914478161619</v>
       </c>
       <c r="Q30" t="n">
         <v>248.0452272823213</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>351.7328760621174</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>534.9729011123907</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>536.8928322226456</v>
       </c>
       <c r="N33" t="n">
-        <v>698.7834824491986</v>
+        <v>710.5707580784324</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.26807013473992</v>
+        <v>72.26807013473989</v>
       </c>
       <c r="K34" t="n">
         <v>196.5136179289031</v>
@@ -37233,7 +37233,7 @@
         <v>284.3461595733784</v>
       </c>
       <c r="M34" t="n">
-        <v>305.7854558278709</v>
+        <v>305.7854558278708</v>
       </c>
       <c r="N34" t="n">
         <v>305.9775844660499</v>
@@ -37245,7 +37245,7 @@
         <v>221.6290626594491</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.70116592992765</v>
+        <v>94.70116592992763</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>130.9608984125254</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>245.4685510186091</v>
       </c>
       <c r="L36" t="n">
-        <v>534.9729011123907</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>710.5707580784324</v>
       </c>
       <c r="O36" t="n">
-        <v>560.9548864546064</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>450.6914478161619</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>72.26807013473987</v>
+        <v>72.2680701347399</v>
       </c>
       <c r="K37" t="n">
         <v>196.5136179289031</v>
@@ -37473,16 +37473,16 @@
         <v>305.7854558278708</v>
       </c>
       <c r="N37" t="n">
-        <v>305.9775844660498</v>
+        <v>305.9775844660499</v>
       </c>
       <c r="O37" t="n">
-        <v>272.7776758269982</v>
+        <v>272.7776758269983</v>
       </c>
       <c r="P37" t="n">
         <v>221.6290626594491</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.70116592992761</v>
+        <v>94.70116592992764</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>672.8357895684733</v>
       </c>
       <c r="O38" t="n">
-        <v>589.6956780959758</v>
+        <v>589.6956780959761</v>
       </c>
       <c r="P38" t="n">
         <v>465.236685933391</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>130.9608984125254</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>351.7328760621174</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>600.605640926809</v>
+        <v>676.7924068397037</v>
       </c>
       <c r="N39" t="n">
-        <v>710.5707580784324</v>
+        <v>417.8933042814496</v>
       </c>
       <c r="O39" t="n">
         <v>582.9468786881773</v>
       </c>
       <c r="P39" t="n">
-        <v>450.6914478161619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>248.0452272823213</v>
@@ -37780,10 +37780,10 @@
         <v>209.1873874027424</v>
       </c>
       <c r="K41" t="n">
-        <v>435.4821162156301</v>
+        <v>435.4821162156304</v>
       </c>
       <c r="L41" t="n">
-        <v>593.0587474134066</v>
+        <v>593.0587474134073</v>
       </c>
       <c r="M41" t="n">
         <v>676.6664150409748</v>
@@ -37859,25 +37859,25 @@
         <v>130.9608984125254</v>
       </c>
       <c r="K42" t="n">
-        <v>351.7328760621174</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>534.9729011123907</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>676.7924068397037</v>
+        <v>473.3050747706911</v>
       </c>
       <c r="N42" t="n">
-        <v>647.1347955328797</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>582.9468786881773</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>450.6914478161619</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>248.0452272823213</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>351.7328760621174</v>
       </c>
       <c r="L45" t="n">
-        <v>534.9729011123907</v>
+        <v>16.23315824803632</v>
       </c>
       <c r="M45" t="n">
-        <v>633.2598414503029</v>
+        <v>676.7924068397037</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>710.5707580784324</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>582.9468786881773</v>
       </c>
       <c r="P45" t="n">
-        <v>450.6914478161619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>248.0452272823213</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.26807013473986</v>
+        <v>72.26807013473987</v>
       </c>
       <c r="K46" t="n">
-        <v>196.513617928903</v>
+        <v>196.5136179289031</v>
       </c>
       <c r="L46" t="n">
         <v>284.3461595733784</v>
@@ -38193,7 +38193,7 @@
         <v>221.6290626594491</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.7011659299276</v>
+        <v>94.70116592992761</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
